--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F9C294-C00F-C343-AFA6-C5BE62457C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63FAA7-83EF-EF44-B3CF-4A401DABDBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>#1 Binary Trees</t>
-  </si>
-  <si>
-    <t>#2 Fannkuch Redux</t>
-  </si>
-  <si>
-    <t>#3 SpeedTest</t>
-  </si>
-  <si>
-    <t>#4 Pi Digits</t>
-  </si>
-  <si>
-    <t>#5 Mandelbrot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Benchmark</t>
   </si>
@@ -88,21 +73,24 @@
   <si>
     <t>Mandelbrot</t>
   </si>
-  <si>
-    <t>Compilation</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F2328"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -137,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,7 +228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$5</c:f>
+              <c:f>Sheet1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -260,7 +249,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$I$4</c:f>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -286,27 +275,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$I$5</c:f>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.2</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.7</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,7 +311,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
+              <c:f>Sheet1!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -343,7 +332,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$I$4</c:f>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -369,7 +358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$I$6</c:f>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -383,7 +372,7 @@
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.6999999999999993</c:v>
@@ -405,7 +394,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$7</c:f>
+              <c:f>Sheet1!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -426,7 +415,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$I$4</c:f>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -452,7 +441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$I$7</c:f>
+              <c:f>Sheet1!$C$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -466,10 +455,10 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.7</c:v>
@@ -488,7 +477,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$8</c:f>
+              <c:f>Sheet1!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -509,7 +498,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$I$4</c:f>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -535,18 +524,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$I$8</c:f>
+              <c:f>Sheet1!$C$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.5</c:v>
@@ -571,7 +560,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$9</c:f>
+              <c:f>Sheet1!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -592,7 +581,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$4:$I$4</c:f>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -618,27 +607,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$I$9</c:f>
+              <c:f>Sheet1!$C$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.1</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.1</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.7</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,89 +635,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9C4A-2A4F-8C3D-1F740C03D694}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Compilation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$4:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Bau</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Go</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Java</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Rust</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9C4A-2A4F-8C3D-1F740C03D694}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -773,7 +679,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -799,6 +705,7 @@
         <c:axId val="15769792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -874,7 +781,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1484,15 +1391,81 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>59947</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>245270</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>235229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62363C05-1EA8-3F22-9864-B1B506611D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="-600000">
+          <a:off x="7225150" y="3224751"/>
+          <a:ext cx="1009106" cy="228383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171621</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>96109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36727</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>203372</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1515,6 +1488,272 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77229</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231690</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993E87F7-3C25-B7C6-BFEA-B21E7EBF72B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7242432" y="3355203"/>
+          <a:ext cx="978244" cy="171621"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221049</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEADEB50-6E13-F24E-A0F1-D9A5287EFA17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7231791" y="3233009"/>
+          <a:ext cx="978244" cy="171621"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>512684</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>193571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397668</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96073A26-1508-A64F-8D5A-342DE4EDCCC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="-600000">
+          <a:off x="4451400" y="2879449"/>
+          <a:ext cx="1009106" cy="228383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>529966</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>384088</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>229630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9603DC89-239F-EA48-BEB5-C5FA00221E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4468682" y="3009901"/>
+          <a:ext cx="978244" cy="171621"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>201829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373447</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C1CA72-1B41-8443-86A3-409CF021D703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4458041" y="2887707"/>
+          <a:ext cx="978244" cy="171621"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1837,344 +2076,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
-  <dimension ref="C4:I18"/>
+  <dimension ref="B4:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C5" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+      <c r="C6" s="1">
+        <v>1.9</v>
       </c>
       <c r="D6" s="1">
         <v>1.9</v>
       </c>
       <c r="E6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H6" s="1">
         <v>1.9</v>
       </c>
-      <c r="F6" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.9</v>
-      </c>
     </row>
-    <row r="7" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>14</v>
+    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.8</v>
       </c>
       <c r="D7" s="1">
         <v>1.8</v>
       </c>
       <c r="E7" s="1">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="F7" s="1">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="G7" s="1">
-        <v>4.4000000000000004</v>
+        <v>270</v>
       </c>
       <c r="H7" s="1">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.9</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="G8" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
         <v>3.5</v>
       </c>
-      <c r="H8" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.4</v>
+      <c r="D9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>108</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.8</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1">
-        <v>8.1</v>
-      </c>
+    <row r="10" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
-    <row r="10" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <f>D18</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E10">
-        <f>E18</f>
-        <v>0.6</v>
-      </c>
-      <c r="F10">
-        <f>F18</f>
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <f>G18</f>
-        <v>1.6</v>
-      </c>
-      <c r="H10">
-        <f>H18</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>I18</f>
-        <v>11.3</v>
-      </c>
+    <row r="12" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
-    <row r="12" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="13" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
-    <row r="13" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2.7</v>
-      </c>
+    <row r="14" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
-    <row r="14" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2.1</v>
-      </c>
+    <row r="15" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
-    <row r="15" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2.1</v>
-      </c>
+    <row r="16" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
-    <row r="16" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <f>SUM(D13:D17)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E18">
-        <f>SUM(E13:E17)</f>
-        <v>0.6</v>
-      </c>
-      <c r="F18">
-        <f>SUM(F13:F17)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <f>SUM(G13:G17)</f>
-        <v>1.6</v>
-      </c>
-      <c r="H18">
-        <f>SUM(H13:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f>SUM(I13:I17)</f>
-        <v>11.3</v>
-      </c>
+    <row r="17" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63FAA7-83EF-EF44-B3CF-4A401DABDBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B678B78-C8B5-5845-9A65-2AD9C0F11BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Java</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
     <t>Rust</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Mandelbrot</t>
+  </si>
+  <si>
+    <t>PyPy</t>
   </si>
 </sst>
 </file>
@@ -265,7 +265,7 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Python</c:v>
+                  <c:v>PyPy</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
@@ -283,19 +283,19 @@
                   <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,7 +348,7 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Python</c:v>
+                  <c:v>PyPy</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
@@ -363,10 +363,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2000000000000002</c:v>
@@ -375,7 +375,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.9</c:v>
@@ -431,7 +431,7 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Python</c:v>
+                  <c:v>PyPy</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
@@ -446,7 +446,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.8</c:v>
@@ -455,13 +455,13 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>270</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,7 +514,7 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Python</c:v>
+                  <c:v>PyPy</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
@@ -529,7 +529,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.9</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
@@ -541,10 +541,10 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,7 +597,7 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Python</c:v>
+                  <c:v>PyPy</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
@@ -624,7 +624,7 @@
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>14.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.8</c:v>
@@ -705,7 +705,7 @@
         <c:axId val="15769792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7"/>
+          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1567,172 +1567,6 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="7231791" y="3233009"/>
-          <a:ext cx="978244" cy="171621"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>512684</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>193571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>397668</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>155940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96073A26-1508-A64F-8D5A-342DE4EDCCC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="-600000">
-          <a:off x="4451400" y="2879449"/>
-          <a:ext cx="1009106" cy="228383"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>529966</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>58009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>384088</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>229630</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9603DC89-239F-EA48-BEB5-C5FA00221E22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4468682" y="3009901"/>
-          <a:ext cx="978244" cy="171621"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>519325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>201829</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>373447</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107436</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C1CA72-1B41-8443-86A3-409CF021D703}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4458041" y="2887707"/>
           <a:ext cx="978244" cy="171621"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2078,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
   <dimension ref="B4:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2107,45 +1941,45 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E5" s="1">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="G5" s="1">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="H5" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E6" s="1">
         <v>2.2000000000000002</v>
@@ -2154,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>9.6999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="H6" s="1">
         <v>1.9</v>
@@ -2162,10 +1996,10 @@
     </row>
     <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="D7" s="1">
         <v>1.8</v>
@@ -2174,21 +2008,21 @@
         <v>3.2</v>
       </c>
       <c r="F7" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G7" s="1">
-        <v>270</v>
+        <v>15.4</v>
       </c>
       <c r="H7" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D8" s="1">
         <v>0.3</v>
@@ -2200,15 +2034,15 @@
         <v>3.5</v>
       </c>
       <c r="G8" s="1">
-        <v>5.0999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>3.5</v>
@@ -2223,7 +2057,7 @@
         <v>3.6</v>
       </c>
       <c r="G9" s="1">
-        <v>108</v>
+        <v>14.9</v>
       </c>
       <c r="H9" s="1">
         <v>3.8</v>

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B678B78-C8B5-5845-9A65-2AD9C0F11BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941F684-1265-6E4A-AA2C-E54F6930419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
   <si>
     <t>Benchmark</t>
   </si>
@@ -72,13 +73,127 @@
   </si>
   <si>
     <t>PyPy</t>
+  </si>
+  <si>
+    <t>find src/test/resources/org/bau/benchmarks -type f -name '*.bau' -exec wc -l {} +</t>
+  </si>
+  <si>
+    <t>(base) mueller@Thomass-MacBook-Pro bau % find src/test/resources/org/bau/benchmarks -type f -name '*.c' -exec wc -l {} +</t>
+  </si>
+  <si>
+    <t>(base) mueller@Thomass-MacBook-Pro bau % find src/test/resources/org/bau/benchmarks -type f -name '*.py' -exec wc -l {} +</t>
+  </si>
+  <si>
+    <t>(base) mueller@Thomass-MacBook-Pro bau % find src/test/resources/org/bau/benchmarks -type f -name '*.rs' -exec wc -l {} +</t>
+  </si>
+  <si>
+    <t>(base) mueller@Thomass-MacBook-Pro bau % find src/test/resources/org/bau/benchmarks -type f -name '*.go' -exec wc -l {} +</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/binaryTrees.bau</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/munchausen.bau</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/fannkuch.bau</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/mandelbrot.bau</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/piDigits.bau</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/munchausen.c</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/piDigits.c</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/fannkuch.c</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/binaryTrees.c</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/mandelbrot.c</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/munchausen.py</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/binaryTrees.py</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/mandelbrot.py</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/piDigits.py</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/fannkuch.py</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/rust/pi_digits/src/main.rs</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/munchausen.rs</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/binaryTrees.rs</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/fannkuch.rs</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/mandelbrot.rs</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/binaryTrees.go</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/munchausen.go</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/piDigits.go</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/mandelbrot.go</t>
+  </si>
+  <si>
+    <t>src/test/resources/org/bau/benchmarks/fannkuch.go</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>bau</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +219,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,11 +246,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,6 +963,608 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$45:$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Bau</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$45:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF95-DB46-8782-4419B6DA5124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2128375600"/>
+        <c:axId val="2128513888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2128375600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128513888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2128513888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128375600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Characters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$45:$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Bau</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$45:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FA2-A048-A555-E18773834A1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1769838208"/>
+        <c:axId val="160539344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1769838208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160539344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160539344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1769838208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -881,7 +1605,1097 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1593,6 +3407,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5903871-940B-1A5E-2D9F-4892AC3A678C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FC6747-A9E1-C8E7-AB2A-EF5EF0E2EE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1912,7 +3803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
   <dimension ref="B4:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -2130,4 +4021,770 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
+  <dimension ref="D9:M74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40">
+        <v>90</v>
+      </c>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>58</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>SUM(M45:M49)</f>
+        <v>3453</v>
+      </c>
+      <c r="K45" s="4">
+        <v>330</v>
+      </c>
+      <c r="L45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M45" s="4">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f>SUM(M50:M54)</f>
+        <v>4377</v>
+      </c>
+      <c r="K46" s="4">
+        <v>742</v>
+      </c>
+      <c r="M46" s="4">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <f>SUM(M60:M64)</f>
+        <v>3330</v>
+      </c>
+      <c r="K47" s="4">
+        <v>290</v>
+      </c>
+      <c r="M47" s="4">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <f>SUM(M65:M69)</f>
+        <v>4952</v>
+      </c>
+      <c r="K48" s="4">
+        <v>181</v>
+      </c>
+      <c r="M48" s="4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <f>SUM(M55:M59)</f>
+        <v>4425</v>
+      </c>
+      <c r="K49" s="4">
+        <v>585</v>
+      </c>
+      <c r="M49" s="4">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <f>SUM(K70:K74)</f>
+        <v>4764</v>
+      </c>
+      <c r="K50" s="4">
+        <v>599</v>
+      </c>
+      <c r="L50" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" s="4">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K51" s="4">
+        <v>935</v>
+      </c>
+      <c r="M51" s="4">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K52" s="4">
+        <v>520</v>
+      </c>
+      <c r="M52" s="4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K53" s="4">
+        <v>251</v>
+      </c>
+      <c r="M53" s="4">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K54" s="4">
+        <v>558</v>
+      </c>
+      <c r="M54" s="4">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K55" s="4">
+        <v>440</v>
+      </c>
+      <c r="L55" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K56" s="4">
+        <v>1001</v>
+      </c>
+      <c r="M56" s="4">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K57" s="4">
+        <v>601</v>
+      </c>
+      <c r="M57" s="4">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K58" s="4">
+        <v>265</v>
+      </c>
+      <c r="M58" s="4">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K59" s="4">
+        <v>662</v>
+      </c>
+      <c r="M59" s="4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K60" s="4">
+        <v>379</v>
+      </c>
+      <c r="L60" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" s="4">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K61" s="4">
+        <v>617</v>
+      </c>
+      <c r="M61" s="4">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K62" s="4">
+        <v>382</v>
+      </c>
+      <c r="M62" s="4">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K63" s="4">
+        <v>173</v>
+      </c>
+      <c r="M63" s="4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="K64" s="4">
+        <v>560</v>
+      </c>
+      <c r="M64" s="4">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="65" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K65" s="4">
+        <v>723</v>
+      </c>
+      <c r="L65" t="s">
+        <v>48</v>
+      </c>
+      <c r="M65" s="4">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="66" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K66" s="4">
+        <v>876</v>
+      </c>
+      <c r="M66" s="4">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="67" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K67" s="4">
+        <v>748</v>
+      </c>
+      <c r="M67" s="4">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="68" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K68" s="4">
+        <v>246</v>
+      </c>
+      <c r="M68" s="4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K69" s="4">
+        <v>696</v>
+      </c>
+      <c r="M69" s="4">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="70" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K70" s="4">
+        <v>1215</v>
+      </c>
+      <c r="L70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K71" s="4">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="72" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K72" s="4">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="73" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K73" s="4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="74" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K74" s="4">
+        <v>880</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941F684-1265-6E4A-AA2C-E54F6930419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF1591D-8B0E-F646-A439-0F6452FE7760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Performance" sheetId="1" r:id="rId1"/>
+    <sheet name="Concise" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Benchmark</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Binary Trees</t>
   </si>
   <si>
-    <t>Fannkuch Redux</t>
-  </si>
-  <si>
     <t>SpeedTest</t>
   </si>
   <si>
@@ -75,125 +72,35 @@
     <t>PyPy</t>
   </si>
   <si>
-    <t>find src/test/resources/org/bau/benchmarks -type f -name '*.bau' -exec wc -l {} +</t>
-  </si>
-  <si>
-    <t>(base) mueller@Thomass-MacBook-Pro bau % find src/test/resources/org/bau/benchmarks -type f -name '*.c' -exec wc -l {} +</t>
-  </si>
-  <si>
-    <t>(base) mueller@Thomass-MacBook-Pro bau % find src/test/resources/org/bau/benchmarks -type f -name '*.py' -exec wc -l {} +</t>
-  </si>
-  <si>
-    <t>(base) mueller@Thomass-MacBook-Pro bau % find src/test/resources/org/bau/benchmarks -type f -name '*.rs' -exec wc -l {} +</t>
-  </si>
-  <si>
-    <t>(base) mueller@Thomass-MacBook-Pro bau % find src/test/resources/org/bau/benchmarks -type f -name '*.go' -exec wc -l {} +</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/binaryTrees.bau</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/munchausen.bau</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/fannkuch.bau</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/mandelbrot.bau</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/piDigits.bau</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/munchausen.c</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/piDigits.c</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/fannkuch.c</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/binaryTrees.c</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/mandelbrot.c</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/munchausen.py</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/binaryTrees.py</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/mandelbrot.py</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/piDigits.py</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/fannkuch.py</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/rust/pi_digits/src/main.rs</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/munchausen.rs</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/binaryTrees.rs</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/fannkuch.rs</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/mandelbrot.rs</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/binaryTrees.go</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/munchausen.go</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/piDigits.go</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/mandelbrot.go</t>
-  </si>
-  <si>
-    <t>src/test/resources/org/bau/benchmarks/fannkuch.go</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
-    <t>bau</t>
+    <t>Language</t>
   </si>
   <si>
-    <t>c</t>
+    <t>Lines</t>
   </si>
   <si>
-    <t>py</t>
+    <t>Bytes</t>
   </si>
   <si>
-    <t>rust</t>
+    <t>Whitespace</t>
   </si>
   <si>
-    <t>java</t>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Fannkuch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,15 +121,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FF1F2328"/>
       <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -246,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,7 +264,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>Performance!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -371,7 +285,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -397,7 +311,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:f>Performance!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -414,7 +328,7 @@
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.9</c:v>
@@ -433,11 +347,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
+              <c:f>Performance!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fannkuch Redux</c:v>
+                  <c:v>Fannkuch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -454,7 +368,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -480,12 +394,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:f>Performance!$C$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.2000000000000002</c:v>
@@ -494,13 +408,13 @@
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,7 +430,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Performance!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -537,7 +451,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -563,12 +477,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$H$7</c:f>
+              <c:f>Performance!$C$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.8</c:v>
@@ -599,7 +513,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$8</c:f>
+              <c:f>Performance!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -620,7 +534,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -646,7 +560,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$H$8</c:f>
+              <c:f>Performance!$C$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -654,7 +568,7 @@
                   <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -682,7 +596,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$9</c:f>
+              <c:f>Performance!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -703,7 +617,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -729,7 +643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$H$9</c:f>
+              <c:f>Performance!$C$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -743,7 +657,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14.9</c:v>
@@ -845,7 +759,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0_ ;\-0\ " sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -978,6 +892,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Syntax Statistics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1011,12 +950,23 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1029,39 +979,403 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$D$45:$D$49</c:f>
+              <c:f>Concise!$C$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bau</c:v>
+                  <c:v>Lines</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C</c:v>
+                  <c:v>Bytes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Python</c:v>
+                  <c:v>Whitespace</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Rust</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Go</c:v>
+                  <c:v>Alphanumeric</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$45:$G$49</c:f>
+              <c:f>Concise!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2700</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF95-DB46-8782-4419B6DA5124}"/>
+              <c16:uniqueId val="{00000000-DD04-B54E-B7F7-3461ED87B74D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD04-B54E-B7F7-3461ED87B74D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD04-B54E-B7F7-3461ED87B74D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD04-B54E-B7F7-3461ED87B74D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DD04-B54E-B7F7-3461ED87B74D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DD04-B54E-B7F7-3461ED87B74D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1074,16 +1388,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2128375600"/>
-        <c:axId val="2128513888"/>
+        <c:axId val="1808731712"/>
+        <c:axId val="1808772160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128375600"/>
+        <c:axId val="1808731712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1121,7 +1435,7 @@
             <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128513888"/>
+        <c:crossAx val="1808772160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1129,12 +1443,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128513888"/>
+        <c:axId val="1808772160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1180,7 +1494,7 @@
             <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128375600"/>
+        <c:crossAx val="1808731712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1192,6 +1506,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1270,8 +1615,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Syntax</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Characters</a:t>
+              <a:t> Metrics:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparison to Python</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1313,8 +1672,102 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bau</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3577586206896552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.478448275862069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4655172413793103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F474-2C4D-A906-045B5CBCECC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1327,39 +1780,309 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$D$45:$D$49</c:f>
+              <c:f>Concise!$I$3:$I$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Bau</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Python</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Rust</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Go</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$45:$F$49</c:f>
+              <c:f>Concise!$K$3:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99928328256584842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3339903243146389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3123096219315535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.461924386310697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4886221107328437</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1FA2-A048-A555-E18773834A1F}"/>
+              <c16:uniqueId val="{00000001-F474-2C4D-A906-045B5CBCECC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bau</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98789007918025151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2473218444340941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3330228225430834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6273870517000466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5412203074056825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F474-2C4D-A906-045B5CBCECC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bau</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0396296296296297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3185185185185184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2114814814814814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3477777777777777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3670370370370371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F474-2C4D-A906-045B5CBCECC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Special</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bau</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95703703703703702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6874074074074072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5229629629629629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5185185185185184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8414814814814815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F474-2C4D-A906-045B5CBCECC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1372,11 +2095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1769838208"/>
-        <c:axId val="160539344"/>
+        <c:axId val="1729935952"/>
+        <c:axId val="652995568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1769838208"/>
+        <c:axId val="1729935952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +2127,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1419,7 +2142,7 @@
             <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160539344"/>
+        <c:crossAx val="652995568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1427,9 +2150,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160539344"/>
+        <c:axId val="652995568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1447,7 +2172,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1463,7 +2188,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1478,9 +2203,10 @@
             <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1769838208"/>
+        <c:crossAx val="1729935952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1505,7 +2231,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3411,23 +4137,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5903871-940B-1A5E-2D9F-4892AC3A678C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6730BD-2D23-F18E-35DD-924953FB3635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,23 +4173,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FC6747-A9E1-C8E7-AB2A-EF5EF0E2EE02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE30F8AB-AD18-C075-C4E3-EF410C678744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3803,8 +4529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
   <dimension ref="B4:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3817,25 +4543,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3856,7 +4582,7 @@
         <v>3.4</v>
       </c>
       <c r="G5" s="1">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="H5" s="1">
         <v>5.9</v>
@@ -3864,10 +4590,10 @@
     </row>
     <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D6" s="1">
         <v>2.2000000000000002</v>
@@ -3876,21 +4602,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G6" s="1">
         <v>5.2</v>
       </c>
       <c r="H6" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="D7" s="1">
         <v>1.8</v>
@@ -3910,13 +4636,13 @@
     </row>
     <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>2.6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -3933,7 +4659,7 @@
     </row>
     <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>3.5</v>
@@ -3945,7 +4671,7 @@
         <v>3.5</v>
       </c>
       <c r="F9" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="G9" s="1">
         <v>14.9</v>
@@ -4025,763 +4751,535 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
-  <dimension ref="D9:M74"/>
+  <dimension ref="B2:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="D4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D9" s="4" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D10" s="4" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17">
-        <v>93</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>51</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>51</v>
-      </c>
-      <c r="H27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28">
-        <v>54</v>
-      </c>
-      <c r="H28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31">
-        <v>83</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32">
-        <v>34</v>
-      </c>
-      <c r="H32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33">
-        <v>86</v>
-      </c>
-      <c r="H33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34">
-        <v>76</v>
-      </c>
-      <c r="H34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D37" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38">
-        <v>69</v>
-      </c>
-      <c r="H38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39">
-        <v>43</v>
-      </c>
-      <c r="H39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40">
-        <v>90</v>
-      </c>
-      <c r="H40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41">
-        <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42">
-        <v>86</v>
-      </c>
-      <c r="H42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D43" s="4"/>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D45" s="4" t="s">
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>232</v>
+      </c>
+      <c r="D3">
+        <v>5581</v>
+      </c>
+      <c r="E3">
+        <v>2147</v>
+      </c>
+      <c r="F3">
+        <v>2700</v>
+      </c>
+      <c r="G3">
+        <v>675</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <f>1/C$3*C3</f>
         <v>1</v>
       </c>
-      <c r="E45">
-        <f>SUM(M45:M49)</f>
-        <v>3453</v>
-      </c>
-      <c r="K45" s="4">
-        <v>330</v>
-      </c>
-      <c r="L45" t="s">
-        <v>45</v>
-      </c>
-      <c r="M45" s="4">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D46" s="4" t="s">
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="0">1/D$3*D3</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="1">1/E$3*E3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="2">1/F$3*F3</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="3">1/G$3*G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>236</v>
+      </c>
+      <c r="D4">
+        <v>5577</v>
+      </c>
+      <c r="E4">
+        <v>2121</v>
+      </c>
+      <c r="F4">
+        <v>2807</v>
+      </c>
+      <c r="G4">
+        <v>646</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="4">1/C$3*C4</f>
+        <v>1.0172413793103448</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.99928328256584842</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.98789007918025151</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1.0396296296296297</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>0.95703703703703702</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E46">
-        <f>SUM(M50:M54)</f>
-        <v>4377</v>
-      </c>
-      <c r="K46" s="4">
-        <v>742</v>
-      </c>
-      <c r="M46" s="4">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47">
-        <f>SUM(M60:M64)</f>
-        <v>3330</v>
-      </c>
-      <c r="K47" s="4">
+      <c r="C5">
+        <v>315</v>
+      </c>
+      <c r="D5">
+        <v>7445</v>
+      </c>
+      <c r="E5">
+        <v>2678</v>
+      </c>
+      <c r="F5">
+        <v>3560</v>
+      </c>
+      <c r="G5">
+        <v>1139</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>1.3577586206896552</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.3339903243146389</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1.2473218444340941</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>1.3185185185185184</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1.6874074074074072</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>343</v>
+      </c>
+      <c r="D6">
+        <v>7324</v>
+      </c>
+      <c r="E6">
+        <v>2862</v>
+      </c>
+      <c r="F6">
+        <v>3271</v>
+      </c>
+      <c r="G6">
+        <v>1028</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1.478448275862069</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.3123096219315535</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1.3330228225430834</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1.2114814814814814</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1.5229629629629629</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>290</v>
       </c>
-      <c r="M47" s="4">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D48" s="4" t="s">
+      <c r="D7">
+        <v>8159</v>
+      </c>
+      <c r="E7">
+        <v>3494</v>
+      </c>
+      <c r="F7">
+        <v>3639</v>
+      </c>
+      <c r="G7">
+        <v>1025</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.461924386310697</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.6273870517000466</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1.3477777777777777</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>1.5185185185185184</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E48">
-        <f>SUM(M65:M69)</f>
-        <v>4952</v>
-      </c>
-      <c r="K48" s="4">
-        <v>181</v>
-      </c>
-      <c r="M48" s="4">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <f>SUM(M55:M59)</f>
-        <v>4425</v>
-      </c>
-      <c r="K49" s="4">
-        <v>585</v>
-      </c>
-      <c r="M49" s="4">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <f>SUM(K70:K74)</f>
-        <v>4764</v>
-      </c>
-      <c r="K50" s="4">
-        <v>599</v>
-      </c>
-      <c r="L50" t="s">
-        <v>46</v>
-      </c>
-      <c r="M50" s="4">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K51" s="4">
-        <v>935</v>
-      </c>
-      <c r="M51" s="4">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K52" s="4">
-        <v>520</v>
-      </c>
-      <c r="M52" s="4">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K53" s="4">
-        <v>251</v>
-      </c>
-      <c r="M53" s="4">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K54" s="4">
-        <v>558</v>
-      </c>
-      <c r="M54" s="4">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K55" s="4">
-        <v>440</v>
-      </c>
-      <c r="L55" t="s">
-        <v>43</v>
-      </c>
-      <c r="M55" s="4">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K56" s="4">
-        <v>1001</v>
-      </c>
-      <c r="M56" s="4">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K57" s="4">
-        <v>601</v>
-      </c>
-      <c r="M57" s="4">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K58" s="4">
-        <v>265</v>
-      </c>
-      <c r="M58" s="4">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K59" s="4">
-        <v>662</v>
-      </c>
-      <c r="M59" s="4">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K60" s="4">
-        <v>379</v>
-      </c>
-      <c r="L60" t="s">
-        <v>47</v>
-      </c>
-      <c r="M60" s="4">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K61" s="4">
-        <v>617</v>
-      </c>
-      <c r="M61" s="4">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K62" s="4">
-        <v>382</v>
-      </c>
-      <c r="M62" s="4">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K63" s="4">
-        <v>173</v>
-      </c>
-      <c r="M63" s="4">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="K64" s="4">
-        <v>560</v>
-      </c>
-      <c r="M64" s="4">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="65" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K65" s="4">
-        <v>723</v>
-      </c>
-      <c r="L65" t="s">
-        <v>48</v>
-      </c>
-      <c r="M65" s="4">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="66" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K66" s="4">
-        <v>876</v>
-      </c>
-      <c r="M66" s="4">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="67" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K67" s="4">
-        <v>748</v>
-      </c>
-      <c r="M67" s="4">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="68" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K68" s="4">
-        <v>246</v>
-      </c>
-      <c r="M68" s="4">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="69" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K69" s="4">
-        <v>696</v>
-      </c>
-      <c r="M69" s="4">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="70" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K70" s="4">
-        <v>1215</v>
-      </c>
-      <c r="L70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K71" s="4">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="72" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K72" s="4">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="73" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K73" s="4">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="74" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K74" s="4">
-        <v>880</v>
-      </c>
+      <c r="C8">
+        <v>340</v>
+      </c>
+      <c r="D8">
+        <v>8308</v>
+      </c>
+      <c r="E8">
+        <v>3309</v>
+      </c>
+      <c r="F8">
+        <v>3691</v>
+      </c>
+      <c r="G8">
+        <v>1243</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>1.4655172413793103</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.4886221107328437</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1.5412203074056825</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>1.3670370370370371</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1.8414814814814815</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I74" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF1591D-8B0E-F646-A439-0F6452FE7760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED4802C-7119-C744-85DD-301834D6473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Benchmark</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Fannkuch</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>Swift</t>
   </si>
 </sst>
 </file>
@@ -285,9 +291,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$I$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -305,16 +311,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Swift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$5:$H$5</c:f>
+              <c:f>Performance!$C$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0999999999999996</c:v>
                 </c:pt>
@@ -332,6 +341,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,9 +380,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$I$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -388,16 +400,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Swift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$6:$H$6</c:f>
+              <c:f>Performance!$C$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.1</c:v>
                 </c:pt>
@@ -415,6 +430,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,9 +469,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$I$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -471,16 +489,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Swift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$7:$H$7</c:f>
+              <c:f>Performance!$C$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -498,6 +519,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,9 +558,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$I$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -554,16 +578,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Swift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$8:$H$8</c:f>
+              <c:f>Performance!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.6</c:v>
                 </c:pt>
@@ -581,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,9 +647,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$H$4</c:f>
+              <c:f>Performance!$C$4:$I$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -637,16 +667,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Swift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$9:$H$9</c:f>
+              <c:f>Performance!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.5</c:v>
                 </c:pt>
@@ -664,6 +697,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,13 +1043,13 @@
                   <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5581</c:v>
+                  <c:v>5578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2147</c:v>
+                  <c:v>2145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2700</c:v>
+                  <c:v>2695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1140,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C</c:v>
+                  <c:v>Swift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1146,16 +1182,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>315</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7445</c:v>
+                  <c:v>6589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2678</c:v>
+                  <c:v>2573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3560</c:v>
+                  <c:v>3181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +1211,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Go</c:v>
+                  <c:v>Kotlin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1217,16 +1253,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>343</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7324</c:v>
+                  <c:v>6953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2862</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3271</c:v>
+                  <c:v>3501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,7 +1282,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Java</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1288,16 +1324,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>290</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8159</c:v>
+                  <c:v>7442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3494</c:v>
+                  <c:v>2676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3639</c:v>
+                  <c:v>3559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1353,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rust</c:v>
+                  <c:v>Go</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1359,16 +1395,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>340</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8308</c:v>
+                  <c:v>7337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3309</c:v>
+                  <c:v>2860</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3691</c:v>
+                  <c:v>3286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,9 +1733,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:f>Concise!$I$3:$I$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -1707,15 +1743,21 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Go</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -1723,10 +1765,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$J$3:$J$8</c:f>
+              <c:f>Concise!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1734,15 +1776,21 @@
                   <c:v>1.0172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.2758620689655171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1939655172413792</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.3577586206896552</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1.478448275862069</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>1.2413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.4655172413793103</c:v>
                 </c:pt>
               </c:numCache>
@@ -1780,9 +1828,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:f>Concise!$I$3:$I$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -1790,15 +1838,21 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Go</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -1806,27 +1860,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$K$3:$K$8</c:f>
+              <c:f>Concise!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99928328256584842</c:v>
+                  <c:v>0.99982072427393343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3339903243146389</c:v>
+                  <c:v>1.1812477590534243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3123096219315535</c:v>
+                  <c:v>1.2465041233416996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.461924386310697</c:v>
+                  <c:v>1.3341699533883113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4886221107328437</c:v>
+                  <c:v>1.3153460021513088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4560774471136608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4888849049838653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,9 +1923,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:f>Concise!$I$3:$I$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -1873,15 +1933,21 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Go</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -1889,27 +1955,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$L$3:$L$8</c:f>
+              <c:f>Concise!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98789007918025151</c:v>
+                  <c:v>0.98881118881118879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2473218444340941</c:v>
+                  <c:v>1.1995337995337996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3330228225430834</c:v>
+                  <c:v>1.2074592074592074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6273870517000466</c:v>
+                  <c:v>1.2475524475524475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5412203074056825</c:v>
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5426573426573427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,9 +2018,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:f>Concise!$I$3:$I$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -1956,15 +2028,21 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Go</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -1972,27 +2050,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$M$3:$M$8</c:f>
+              <c:f>Concise!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0396296296296297</c:v>
+                  <c:v>1.0415584415584416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3185185185185184</c:v>
+                  <c:v>1.1803339517625231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2114814814814814</c:v>
+                  <c:v>1.2990723562152133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3477777777777777</c:v>
+                  <c:v>1.3205936920222634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3670370370370371</c:v>
+                  <c:v>1.2192949907235622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3473098330241187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3673469387755102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,9 +2113,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$8</c:f>
+              <c:f>Concise!$I$3:$I$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -2039,15 +2123,21 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Go</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Rust</c:v>
                 </c:pt>
               </c:strCache>
@@ -2055,27 +2145,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$N$3:$N$8</c:f>
+              <c:f>Concise!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95703703703703702</c:v>
+                  <c:v>0.95139911634756991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6874074074074072</c:v>
+                  <c:v>1.2164948453608246</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5229629629629629</c:v>
+                  <c:v>1.2739322533136965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5185185185185184</c:v>
+                  <c:v>1.6774668630338734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8414814814814815</c:v>
+                  <c:v>1.5139911634756995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5007363770250368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8350515463917525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2127,7 +2223,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4527,10 +4623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
-  <dimension ref="B4:H17"/>
+  <dimension ref="B4:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A6" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4542,7 +4638,7 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -4564,8 +4660,11 @@
       <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4587,8 +4686,11 @@
       <c r="H5" s="1">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4610,8 +4712,11 @@
       <c r="H6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -4633,8 +4738,11 @@
       <c r="H7" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4656,8 +4764,11 @@
       <c r="H8" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4679,8 +4790,11 @@
       <c r="H9" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4689,7 +4803,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="12" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4698,7 +4812,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4707,7 +4821,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4716,7 +4830,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4725,7 +4839,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4753,8 +4867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
   <dimension ref="B2:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4805,19 +4919,20 @@
         <v>232</v>
       </c>
       <c r="D3">
-        <v>5581</v>
+        <v>5578</v>
       </c>
       <c r="E3">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="F3">
-        <v>2700</v>
+        <v>2695</v>
       </c>
       <c r="G3">
-        <v>675</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
+        <v>679</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>B3</f>
+        <v>Python</v>
       </c>
       <c r="J3">
         <f>1/C$3*C3</f>
@@ -4859,207 +4974,294 @@
       <c r="G4">
         <v>646</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>1</v>
+      <c r="I4" s="4" t="str">
+        <f t="shared" ref="I4:I10" si="4">B4</f>
+        <v>Bau</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J8" si="4">1/C$3*C4</f>
+        <f t="shared" ref="J4:J8" si="5">1/C$3*C4</f>
         <v>1.0172413793103448</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.99928328256584842</v>
+        <v>0.99982072427393343</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.98789007918025151</v>
+        <v>0.98881118881118879</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>1.0396296296296297</v>
+        <v>1.0415584415584416</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>0.95703703703703702</v>
+        <v>0.95139911634756991</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D5">
-        <v>7445</v>
+        <v>6589</v>
       </c>
       <c r="E5">
-        <v>2678</v>
+        <v>2573</v>
       </c>
       <c r="F5">
-        <v>3560</v>
+        <v>3181</v>
       </c>
       <c r="G5">
-        <v>1139</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>2</v>
+        <v>826</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Swift</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
-        <v>1.3577586206896552</v>
+        <f t="shared" si="5"/>
+        <v>1.2758620689655171</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.3339903243146389</v>
+        <v>1.1812477590534243</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1.2473218444340941</v>
+        <v>1.1995337995337996</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>1.3185185185185184</v>
+        <v>1.1803339517625231</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>1.6874074074074072</v>
+        <v>1.2164948453608246</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="D6">
-        <v>7324</v>
+        <v>6953</v>
       </c>
       <c r="E6">
-        <v>2862</v>
+        <v>2590</v>
       </c>
       <c r="F6">
-        <v>3271</v>
+        <v>3501</v>
       </c>
       <c r="G6">
-        <v>1028</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>3</v>
+        <v>865</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Kotlin</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
-        <v>1.478448275862069</v>
+        <f t="shared" si="5"/>
+        <v>1.1939655172413792</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.3123096219315535</v>
+        <v>1.2465041233416996</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1.3330228225430834</v>
+        <v>1.2074592074592074</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>1.2114814814814814</v>
+        <v>1.2990723562152133</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>1.5229629629629629</v>
+        <v>1.2739322533136965</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="D7">
-        <v>8159</v>
+        <v>7442</v>
       </c>
       <c r="E7">
-        <v>3494</v>
+        <v>2676</v>
       </c>
       <c r="F7">
-        <v>3639</v>
+        <v>3559</v>
       </c>
       <c r="G7">
-        <v>1025</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>4</v>
+        <v>1139</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
-        <v>1.25</v>
+        <f t="shared" si="5"/>
+        <v>1.3577586206896552</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.461924386310697</v>
+        <v>1.3341699533883113</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.6273870517000466</v>
+        <v>1.2475524475524475</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>1.3477777777777777</v>
+        <v>1.3205936920222634</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>1.5185185185185184</v>
+        <v>1.6774668630338734</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D8">
-        <v>8308</v>
+        <v>7337</v>
       </c>
       <c r="E8">
-        <v>3309</v>
+        <v>2860</v>
       </c>
       <c r="F8">
-        <v>3691</v>
+        <v>3286</v>
       </c>
       <c r="G8">
-        <v>1243</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>5</v>
+        <v>1028</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Go</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
-        <v>1.4655172413793103</v>
+        <f t="shared" si="5"/>
+        <v>1.478448275862069</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1.4886221107328437</v>
+        <v>1.3153460021513088</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.5412203074056825</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>1.3670370370370371</v>
+        <v>1.2192949907235622</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>1.8414814814814815</v>
+        <v>1.5139911634756995</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>288</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8122</v>
+      </c>
+      <c r="E9">
+        <v>3471</v>
+      </c>
+      <c r="F9">
+        <v>3631</v>
+      </c>
+      <c r="G9">
+        <v>1019</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Java</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="6">1/C$3*C9</f>
+        <v>1.2413793103448276</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K10" si="7">1/D$3*D9</f>
+        <v>1.4560774471136608</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L10" si="8">1/E$3*E9</f>
+        <v>1.6181818181818182</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M10" si="9">1/F$3*F9</f>
+        <v>1.3473098330241187</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N10" si="10">1/G$3*G9</f>
+        <v>1.5007363770250368</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>340</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8305</v>
+      </c>
+      <c r="E10">
+        <v>3309</v>
+      </c>
+      <c r="F10">
+        <v>3685</v>
+      </c>
+      <c r="G10">
+        <v>1246</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Rust</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10" si="11">1/C$3*C10</f>
+        <v>1.4655172413793103</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>1.4888849049838653</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>1.5426573426573427</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="9"/>
+        <v>1.3673469387755102</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="10"/>
+        <v>1.8350515463917525</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED4802C-7119-C744-85DD-301834D6473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107C0A1-8D42-F142-B3B8-BCB98DAFA76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="21400" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
-    <sheet name="Concise" sheetId="2" r:id="rId2"/>
+    <sheet name="signal" sheetId="3" r:id="rId2"/>
+    <sheet name="Concise" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="143">
   <si>
     <t>Benchmark</t>
   </si>
@@ -100,6 +101,372 @@
   </si>
   <si>
     <t>Swift</t>
+  </si>
+  <si>
+    <t>8.25 seconds per million nodes</t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>1  </t>
+  </si>
+  <si>
+    <t>SIGHUP  </t>
+  </si>
+  <si>
+    <t>terminate process </t>
+  </si>
+  <si>
+    <t>terminal line hangup</t>
+  </si>
+  <si>
+    <t>2  </t>
+  </si>
+  <si>
+    <t>SIGINT  </t>
+  </si>
+  <si>
+    <t>interrupt program</t>
+  </si>
+  <si>
+    <t>3  </t>
+  </si>
+  <si>
+    <t>SIGQUIT </t>
+  </si>
+  <si>
+    <t>create core image </t>
+  </si>
+  <si>
+    <t>quit program</t>
+  </si>
+  <si>
+    <t>4  </t>
+  </si>
+  <si>
+    <t>SIGILL  </t>
+  </si>
+  <si>
+    <t>illegal instruction</t>
+  </si>
+  <si>
+    <t>5  </t>
+  </si>
+  <si>
+    <t>SIGTRAP </t>
+  </si>
+  <si>
+    <t>trace trap</t>
+  </si>
+  <si>
+    <t>6  </t>
+  </si>
+  <si>
+    <t>SIGABRT </t>
+  </si>
+  <si>
+    <t>abort program (formerly SIGIOT)</t>
+  </si>
+  <si>
+    <t>7  </t>
+  </si>
+  <si>
+    <t>SIGEMT  </t>
+  </si>
+  <si>
+    <t>emulate instruction executed</t>
+  </si>
+  <si>
+    <t>8  </t>
+  </si>
+  <si>
+    <t>SIGFPE  </t>
+  </si>
+  <si>
+    <t>floating-point exception</t>
+  </si>
+  <si>
+    <t>9  </t>
+  </si>
+  <si>
+    <t>SIGKILL </t>
+  </si>
+  <si>
+    <t>kill program</t>
+  </si>
+  <si>
+    <t>10 </t>
+  </si>
+  <si>
+    <t>SIGBUS  </t>
+  </si>
+  <si>
+    <t>bus error</t>
+  </si>
+  <si>
+    <t>11 </t>
+  </si>
+  <si>
+    <t>SIGSEGV </t>
+  </si>
+  <si>
+    <t>segmentation violation</t>
+  </si>
+  <si>
+    <t>12 </t>
+  </si>
+  <si>
+    <t>SIGSYS  </t>
+  </si>
+  <si>
+    <t>non-existent system call invoked</t>
+  </si>
+  <si>
+    <t>13 </t>
+  </si>
+  <si>
+    <t>SIGPIPE </t>
+  </si>
+  <si>
+    <t>write on a pipe with no reader</t>
+  </si>
+  <si>
+    <t>14 </t>
+  </si>
+  <si>
+    <t>SIGALRM </t>
+  </si>
+  <si>
+    <t>real-time timer expired</t>
+  </si>
+  <si>
+    <t>15 </t>
+  </si>
+  <si>
+    <t>SIGTERM </t>
+  </si>
+  <si>
+    <t>software termination signal</t>
+  </si>
+  <si>
+    <t>16 </t>
+  </si>
+  <si>
+    <t>SIGURG  </t>
+  </si>
+  <si>
+    <t>discard signal    </t>
+  </si>
+  <si>
+    <t>urgent condition present on socket</t>
+  </si>
+  <si>
+    <t>17 </t>
+  </si>
+  <si>
+    <t>SIGSTOP </t>
+  </si>
+  <si>
+    <t>stop process      </t>
+  </si>
+  <si>
+    <t>stop (cannot be caught or ignored)</t>
+  </si>
+  <si>
+    <t>18 </t>
+  </si>
+  <si>
+    <t>SIGTSTP </t>
+  </si>
+  <si>
+    <t>stop signal generated from keyboard</t>
+  </si>
+  <si>
+    <t>19 </t>
+  </si>
+  <si>
+    <t>SIGCONT </t>
+  </si>
+  <si>
+    <t>continue after stop</t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>SIGCHLD </t>
+  </si>
+  <si>
+    <t>child status has changed</t>
+  </si>
+  <si>
+    <t>21 </t>
+  </si>
+  <si>
+    <t>SIGTTIN </t>
+  </si>
+  <si>
+    <t>background read attempted from control terminal</t>
+  </si>
+  <si>
+    <t>22 </t>
+  </si>
+  <si>
+    <t>SIGTTOU </t>
+  </si>
+  <si>
+    <t>background write attempted to control terminal</t>
+  </si>
+  <si>
+    <t>23 </t>
+  </si>
+  <si>
+    <t>SIGIO   </t>
+  </si>
+  <si>
+    <t>I/O is possible on a descriptor (see fcntl(2))</t>
+  </si>
+  <si>
+    <t>24 </t>
+  </si>
+  <si>
+    <t>SIGXCPU </t>
+  </si>
+  <si>
+    <t>cpu time limit exceeded (see setrlimit(2))</t>
+  </si>
+  <si>
+    <t>25 </t>
+  </si>
+  <si>
+    <t>SIGXFSZ </t>
+  </si>
+  <si>
+    <t>file size limit exceeded (see setrlimit(2))</t>
+  </si>
+  <si>
+    <t>26 </t>
+  </si>
+  <si>
+    <t>virtual time alarm (see setitimer(2))</t>
+  </si>
+  <si>
+    <t>27 </t>
+  </si>
+  <si>
+    <t>SIGPROF </t>
+  </si>
+  <si>
+    <t>profiling timer alarm (see setitimer(2))</t>
+  </si>
+  <si>
+    <t>28 </t>
+  </si>
+  <si>
+    <t>SIGWINCH</t>
+  </si>
+  <si>
+    <t>Window size change</t>
+  </si>
+  <si>
+    <t>29 </t>
+  </si>
+  <si>
+    <t>SIGINFO </t>
+  </si>
+  <si>
+    <t>status request from keyboard</t>
+  </si>
+  <si>
+    <t>30 </t>
+  </si>
+  <si>
+    <t>SIGUSR1 </t>
+  </si>
+  <si>
+    <t>User defined signal 1</t>
+  </si>
+  <si>
+    <t>31 </t>
+  </si>
+  <si>
+    <t>SIGUSR2 </t>
+  </si>
+  <si>
+    <t>User defined signal 2</t>
+  </si>
+  <si>
+    <t>SIGVTALRM</t>
+  </si>
+  <si>
+    <t>default action</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>hang up</t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>emulate</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>floating point exception</t>
+  </si>
+  <si>
+    <t>non-existent syscall</t>
+  </si>
+  <si>
+    <t>pipe without reader</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>terminate</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>window size changed</t>
   </si>
 </sst>
 </file>
@@ -165,13 +532,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4623,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
-  <dimension ref="B4:I17"/>
+  <dimension ref="B4:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="B6" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4848,7 +5216,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4856,6 +5224,54 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
+      <c r="K17" s="6">
+        <v>0.42202546296296295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K18" s="6">
+        <v>0.4258912037037037</v>
+      </c>
+      <c r="L18" s="6">
+        <f>K18-K17</f>
+        <v>3.8657407407407529E-3</v>
+      </c>
+      <c r="M18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f>60*5+30</f>
+        <v>330</v>
+      </c>
+      <c r="N19">
+        <f>M19/40</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f>8.25 * 2000</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f>N21/60</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f>N22/60</f>
+        <v>4.583333333333333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4864,10 +5280,849 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCE9842-6C14-0245-8092-DD3DC9C4F639}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"    " &amp; D2 &amp; "  # " &amp;J2</f>
+        <v xml:space="preserve">    SIGHUP    # hang up</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G32" si="0">"    " &amp; D3 &amp; "  # " &amp;J3</f>
+        <v xml:space="preserve">    SIGINT    # interrupt</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGQUIT   # quit</v>
+      </c>
+      <c r="J4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGILL    # illegal</v>
+      </c>
+      <c r="J5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGTRAP   # trap</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGABRT   # abort</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGEMT    # emulate</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGFPE    # floating point exception</v>
+      </c>
+      <c r="J9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGKILL   # kill</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGBUS    # bus error</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGSEGV   # segmentation violation</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGSYS    # non-existent syscall</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGPIPE   # pipe without reader</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGALRM   # timer</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGTERM   # terminate</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGURG    # urgent</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGSTOP   # stop</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGTSTP   # </v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGCONT   # continue</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGCHLD   # child</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGTTIN   # </v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGTTOU   # </v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGIO     # </v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGXCPU   # </v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGXFSZ   # </v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGVTALRM  # </v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGPROF   # </v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGWINCH  # window size changed</v>
+      </c>
+      <c r="J29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGINFO   # </v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGUSR1   # </v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    SIGUSR2   # </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
   <dimension ref="B2:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107C0A1-8D42-F142-B3B8-BCB98DAFA76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B0ADE3-DD76-9C40-ACA1-BA17D27D9C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21400" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -1408,16 +1408,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>232</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5578</c:v>
+                  <c:v>5594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2145</c:v>
+                  <c:v>2176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2695</c:v>
+                  <c:v>2684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,16 +1479,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>236</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5577</c:v>
+                  <c:v>5627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2121</c:v>
+                  <c:v>2144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2807</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1550,16 +1550,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>296</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2573</c:v>
+                  <c:v>2546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3181</c:v>
+                  <c:v>3211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,16 +1692,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>315</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7442</c:v>
+                  <c:v>7283</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2676</c:v>
+                  <c:v>2611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3559</c:v>
+                  <c:v>3477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,16 +1763,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>343</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7337</c:v>
+                  <c:v>7237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2860</c:v>
+                  <c:v>2783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3286</c:v>
+                  <c:v>3268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,25 +2141,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0172413793103448</c:v>
+                  <c:v>1.0214592274678111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2758620689655171</c:v>
+                  <c:v>1.2145922746781115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1939655172413792</c:v>
+                  <c:v>1.1888412017167382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3577586206896552</c:v>
+                  <c:v>1.3175965665236051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.478448275862069</c:v>
+                  <c:v>1.4420600858369099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2413793103448276</c:v>
+                  <c:v>1.1931330472103003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4655172413793103</c:v>
+                  <c:v>1.4592274678111588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,25 +2236,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99982072427393343</c:v>
+                  <c:v>1.0058991776903825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1812477590534243</c:v>
+                  <c:v>1.1778691455130497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2465041233416996</c:v>
+                  <c:v>1.2429388630675724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3341699533883113</c:v>
+                  <c:v>1.3019306399713979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3153460021513088</c:v>
+                  <c:v>1.2937075437969252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4560774471136608</c:v>
+                  <c:v>1.419377904898105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4888849049838653</c:v>
+                  <c:v>1.4839113335716838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,25 +2331,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98881118881118879</c:v>
+                  <c:v>0.98529411764705876</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1995337995337996</c:v>
+                  <c:v>1.1700367647058822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2074592074592074</c:v>
+                  <c:v>1.1902573529411764</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2475524475524475</c:v>
+                  <c:v>1.1999080882352942</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.278952205882353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6181818181818182</c:v>
+                  <c:v>1.5266544117647058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5426573426573427</c:v>
+                  <c:v>1.5206801470588236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,25 +2426,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0415584415584416</c:v>
+                  <c:v>1.0540238450074515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1803339517625231</c:v>
+                  <c:v>1.1963487332339791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2990723562152133</c:v>
+                  <c:v>1.3043964232488823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3205936920222634</c:v>
+                  <c:v>1.2954545454545454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2192949907235622</c:v>
+                  <c:v>1.2175856929955291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3473098330241187</c:v>
+                  <c:v>1.3438897168405366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3673469387755102</c:v>
+                  <c:v>1.3729508196721312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,25 +2521,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95139911634756991</c:v>
+                  <c:v>0.95876288659793818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2164948453608246</c:v>
+                  <c:v>1.2120765832106037</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2739322533136965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6774668630338734</c:v>
+                  <c:v>1.6597938144329896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5139911634756995</c:v>
+                  <c:v>1.5066273932253313</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5007363770250368</c:v>
+                  <c:v>1.4874815905743741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8350515463917525</c:v>
+                  <c:v>1.829160530191458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2591,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5283,7 +5283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCE9842-6C14-0245-8092-DD3DC9C4F639}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
@@ -6122,7 +6122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
   <dimension ref="B2:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -6171,16 +6171,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D3">
-        <v>5578</v>
+        <v>5594</v>
       </c>
       <c r="E3">
-        <v>2145</v>
+        <v>2176</v>
       </c>
       <c r="F3">
-        <v>2695</v>
+        <v>2684</v>
       </c>
       <c r="G3">
         <v>679</v>
@@ -6215,19 +6215,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D4">
-        <v>5577</v>
+        <v>5627</v>
       </c>
       <c r="E4">
-        <v>2121</v>
+        <v>2144</v>
       </c>
       <c r="F4">
-        <v>2807</v>
+        <v>2829</v>
       </c>
       <c r="G4">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I10" si="4">B4</f>
@@ -6235,23 +6235,23 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" si="5">1/C$3*C4</f>
-        <v>1.0172413793103448</v>
+        <v>1.0214592274678111</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.99982072427393343</v>
+        <v>1.0058991776903825</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.98881118881118879</v>
+        <v>0.98529411764705876</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>1.0415584415584416</v>
+        <v>1.0540238450074515</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>0.95139911634756991</v>
+        <v>0.95876288659793818</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6259,19 +6259,19 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D5">
         <v>6589</v>
       </c>
       <c r="E5">
-        <v>2573</v>
+        <v>2546</v>
       </c>
       <c r="F5">
-        <v>3181</v>
+        <v>3211</v>
       </c>
       <c r="G5">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6279,23 +6279,23 @@
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>1.2758620689655171</v>
+        <v>1.2145922746781115</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.1812477590534243</v>
+        <v>1.1778691455130497</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1.1995337995337996</v>
+        <v>1.1700367647058822</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>1.1803339517625231</v>
+        <v>1.1963487332339791</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>1.2164948453608246</v>
+        <v>1.2120765832106037</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -6323,19 +6323,19 @@
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
-        <v>1.1939655172413792</v>
+        <v>1.1888412017167382</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.2465041233416996</v>
+        <v>1.2429388630675724</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1.2074592074592074</v>
+        <v>1.1902573529411764</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>1.2990723562152133</v>
+        <v>1.3043964232488823</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
@@ -6347,19 +6347,19 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D7">
-        <v>7442</v>
+        <v>7283</v>
       </c>
       <c r="E7">
-        <v>2676</v>
+        <v>2611</v>
       </c>
       <c r="F7">
-        <v>3559</v>
+        <v>3477</v>
       </c>
       <c r="G7">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6367,23 +6367,23 @@
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>1.3577586206896552</v>
+        <v>1.3175965665236051</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.3341699533883113</v>
+        <v>1.3019306399713979</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.2475524475524475</v>
+        <v>1.1999080882352942</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>1.3205936920222634</v>
+        <v>1.2954545454545454</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>1.6774668630338734</v>
+        <v>1.6597938144329896</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -6391,19 +6391,19 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D8">
-        <v>7337</v>
+        <v>7237</v>
       </c>
       <c r="E8">
-        <v>2860</v>
+        <v>2783</v>
       </c>
       <c r="F8">
-        <v>3286</v>
+        <v>3268</v>
       </c>
       <c r="G8">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6411,23 +6411,23 @@
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>1.478448275862069</v>
+        <v>1.4420600858369099</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1.3153460021513088</v>
+        <v>1.2937075437969252</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>1.278952205882353</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>1.2192949907235622</v>
+        <v>1.2175856929955291</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>1.5139911634756995</v>
+        <v>1.5066273932253313</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -6435,19 +6435,19 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D9" s="3">
-        <v>8122</v>
+        <v>7940</v>
       </c>
       <c r="E9">
-        <v>3471</v>
+        <v>3322</v>
       </c>
       <c r="F9">
-        <v>3631</v>
+        <v>3607</v>
       </c>
       <c r="G9">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6455,23 +6455,23 @@
       </c>
       <c r="J9">
         <f t="shared" ref="J9" si="6">1/C$3*C9</f>
-        <v>1.2413793103448276</v>
+        <v>1.1931330472103003</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K10" si="7">1/D$3*D9</f>
-        <v>1.4560774471136608</v>
+        <v>1.419377904898105</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L10" si="8">1/E$3*E9</f>
-        <v>1.6181818181818182</v>
+        <v>1.5266544117647058</v>
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M10" si="9">1/F$3*F9</f>
-        <v>1.3473098330241187</v>
+        <v>1.3438897168405366</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N10" si="10">1/G$3*G9</f>
-        <v>1.5007363770250368</v>
+        <v>1.4874815905743741</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -6482,7 +6482,7 @@
         <v>340</v>
       </c>
       <c r="D10" s="3">
-        <v>8305</v>
+        <v>8301</v>
       </c>
       <c r="E10">
         <v>3309</v>
@@ -6491,7 +6491,7 @@
         <v>3685</v>
       </c>
       <c r="G10">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6499,23 +6499,23 @@
       </c>
       <c r="J10">
         <f t="shared" ref="J10" si="11">1/C$3*C10</f>
-        <v>1.4655172413793103</v>
+        <v>1.4592274678111588</v>
       </c>
       <c r="K10">
         <f t="shared" si="7"/>
-        <v>1.4888849049838653</v>
+        <v>1.4839113335716838</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>1.5426573426573427</v>
+        <v>1.5206801470588236</v>
       </c>
       <c r="M10">
         <f t="shared" si="9"/>
-        <v>1.3673469387755102</v>
+        <v>1.3729508196721312</v>
       </c>
       <c r="N10">
         <f t="shared" si="10"/>
-        <v>1.8350515463917525</v>
+        <v>1.829160530191458</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B0ADE3-DD76-9C40-ACA1-BA17D27D9C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC92C038-ECC0-FC4F-90BE-C324AFAA2EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32020" windowHeight="18980" activeTab="2" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -1411,13 +1411,13 @@
                   <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5594</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2684</c:v>
+                  <c:v>2687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,16 +1479,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>238</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5627</c:v>
+                  <c:v>5513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2144</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2829</c:v>
+                  <c:v>2805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,13 +1553,13 @@
                   <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6589</c:v>
+                  <c:v>6564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2546</c:v>
+                  <c:v>2540</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3211</c:v>
+                  <c:v>3195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,16 +1692,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>307</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7283</c:v>
+                  <c:v>7273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2611</c:v>
+                  <c:v>2606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3477</c:v>
+                  <c:v>3473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,16 +1763,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>336</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7237</c:v>
+                  <c:v>7063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2783</c:v>
+                  <c:v>2775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3268</c:v>
+                  <c:v>3213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +2141,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0214592274678111</c:v>
+                  <c:v>0.97854077253218885</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.2145922746781115</c:v>
@@ -2150,10 +2150,10 @@
                   <c:v>1.1888412017167382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3175965665236051</c:v>
+                  <c:v>1.3133047210300428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4420600858369099</c:v>
+                  <c:v>1.4334763948497855</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.1931330472103003</c:v>
@@ -2236,25 +2236,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0058991776903825</c:v>
+                  <c:v>0.98446428571428568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1778691455130497</c:v>
+                  <c:v>1.1721428571428572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2429388630675724</c:v>
+                  <c:v>1.2416071428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3019306399713979</c:v>
+                  <c:v>1.2987500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2937075437969252</c:v>
+                  <c:v>1.26125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.419377904898105</c:v>
+                  <c:v>1.4157142857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4839113335716838</c:v>
+                  <c:v>1.4823214285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,19 +2331,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705876</c:v>
+                  <c:v>0.94852941176470584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1700367647058822</c:v>
+                  <c:v>1.1672794117647058</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.1902573529411764</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1999080882352942</c:v>
+                  <c:v>1.197610294117647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.278952205882353</c:v>
+                  <c:v>1.2752757352941175</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5266544117647058</c:v>
@@ -2426,25 +2426,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0540238450074515</c:v>
+                  <c:v>1.0439151470040939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1963487332339791</c:v>
+                  <c:v>1.1890584294752513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3043964232488823</c:v>
+                  <c:v>1.302940081875698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2954545454545454</c:v>
+                  <c:v>1.2925195385187942</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2175856929955291</c:v>
+                  <c:v>1.1957573502046892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3438897168405366</c:v>
+                  <c:v>1.3401563081503536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3729508196721312</c:v>
+                  <c:v>1.3714179382210645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,25 +2521,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95876288659793818</c:v>
+                  <c:v>0.93988269794721413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2120765832106037</c:v>
+                  <c:v>1.2023460410557185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2739322533136965</c:v>
+                  <c:v>1.2683284457478006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6597938144329896</c:v>
+                  <c:v>1.6510263929618769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5066273932253313</c:v>
+                  <c:v>1.4897360703812317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4874815905743741</c:v>
+                  <c:v>1.4721407624633431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.829160530191458</c:v>
+                  <c:v>1.8211143695014662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,8 +6122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
   <dimension ref="B2:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6174,16 +6174,16 @@
         <v>233</v>
       </c>
       <c r="D3">
-        <v>5594</v>
+        <v>5600</v>
       </c>
       <c r="E3">
         <v>2176</v>
       </c>
       <c r="F3">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="G3">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>B3</f>
@@ -6215,19 +6215,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D4">
-        <v>5627</v>
+        <v>5513</v>
       </c>
       <c r="E4">
-        <v>2144</v>
+        <v>2064</v>
       </c>
       <c r="F4">
-        <v>2829</v>
+        <v>2805</v>
       </c>
       <c r="G4">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I10" si="4">B4</f>
@@ -6235,23 +6235,23 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" si="5">1/C$3*C4</f>
-        <v>1.0214592274678111</v>
+        <v>0.97854077253218885</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1.0058991776903825</v>
+        <v>0.98446428571428568</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.98529411764705876</v>
+        <v>0.94852941176470584</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>1.0540238450074515</v>
+        <v>1.0439151470040939</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>0.95876288659793818</v>
+        <v>0.93988269794721413</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6262,16 +6262,16 @@
         <v>283</v>
       </c>
       <c r="D5">
-        <v>6589</v>
+        <v>6564</v>
       </c>
       <c r="E5">
-        <v>2546</v>
+        <v>2540</v>
       </c>
       <c r="F5">
-        <v>3211</v>
+        <v>3195</v>
       </c>
       <c r="G5">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6283,19 +6283,19 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.1778691455130497</v>
+        <v>1.1721428571428572</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1.1700367647058822</v>
+        <v>1.1672794117647058</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>1.1963487332339791</v>
+        <v>1.1890584294752513</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>1.2120765832106037</v>
+        <v>1.2023460410557185</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.2429388630675724</v>
+        <v>1.2416071428571429</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
@@ -6335,11 +6335,11 @@
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>1.3043964232488823</v>
+        <v>1.302940081875698</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>1.2739322533136965</v>
+        <v>1.2683284457478006</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -6347,19 +6347,19 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D7">
-        <v>7283</v>
+        <v>7273</v>
       </c>
       <c r="E7">
-        <v>2611</v>
+        <v>2606</v>
       </c>
       <c r="F7">
-        <v>3477</v>
+        <v>3473</v>
       </c>
       <c r="G7">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6367,23 +6367,23 @@
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>1.3175965665236051</v>
+        <v>1.3133047210300428</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.3019306399713979</v>
+        <v>1.2987500000000001</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.1999080882352942</v>
+        <v>1.197610294117647</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>1.2954545454545454</v>
+        <v>1.2925195385187942</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>1.6597938144329896</v>
+        <v>1.6510263929618769</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -6391,19 +6391,19 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D8">
-        <v>7237</v>
+        <v>7063</v>
       </c>
       <c r="E8">
-        <v>2783</v>
+        <v>2775</v>
       </c>
       <c r="F8">
-        <v>3268</v>
+        <v>3213</v>
       </c>
       <c r="G8">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6411,23 +6411,23 @@
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>1.4420600858369099</v>
+        <v>1.4334763948497855</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1.2937075437969252</v>
+        <v>1.26125</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.278952205882353</v>
+        <v>1.2752757352941175</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>1.2175856929955291</v>
+        <v>1.1957573502046892</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>1.5066273932253313</v>
+        <v>1.4897360703812317</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -6438,16 +6438,16 @@
         <v>278</v>
       </c>
       <c r="D9" s="3">
-        <v>7940</v>
+        <v>7928</v>
       </c>
       <c r="E9">
         <v>3322</v>
       </c>
       <c r="F9">
-        <v>3607</v>
+        <v>3601</v>
       </c>
       <c r="G9">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K10" si="7">1/D$3*D9</f>
-        <v>1.419377904898105</v>
+        <v>1.4157142857142857</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L10" si="8">1/E$3*E9</f>
@@ -6467,11 +6467,11 @@
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M10" si="9">1/F$3*F9</f>
-        <v>1.3438897168405366</v>
+        <v>1.3401563081503536</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N10" si="10">1/G$3*G9</f>
-        <v>1.4874815905743741</v>
+        <v>1.4721407624633431</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="7"/>
-        <v>1.4839113335716838</v>
+        <v>1.4823214285714286</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
@@ -6511,11 +6511,11 @@
       </c>
       <c r="M10">
         <f t="shared" si="9"/>
-        <v>1.3729508196721312</v>
+        <v>1.3714179382210645</v>
       </c>
       <c r="N10">
         <f t="shared" si="10"/>
-        <v>1.829160530191458</v>
+        <v>1.8211143695014662</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC92C038-ECC0-FC4F-90BE-C324AFAA2EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB66D8-429C-2C49-96DD-CC360912F79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32020" windowHeight="18980" activeTab="2" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -1408,16 +1408,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>233</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5600</c:v>
+                  <c:v>5408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2176</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2687</c:v>
+                  <c:v>2595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,16 +1479,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>228</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5513</c:v>
+                  <c:v>5416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2064</c:v>
+                  <c:v>2063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2805</c:v>
+                  <c:v>2716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,10 +1553,10 @@
                   <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6564</c:v>
+                  <c:v>6566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2540</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3195</c:v>
@@ -1695,13 +1695,13 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7273</c:v>
+                  <c:v>7268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2606</c:v>
+                  <c:v>2604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3473</c:v>
+                  <c:v>3477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,13 +1766,13 @@
                   <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7063</c:v>
+                  <c:v>7037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2775</c:v>
+                  <c:v>2764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3213</c:v>
+                  <c:v>3217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,25 +2141,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97854077253218885</c:v>
+                  <c:v>1.0225225225225225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2145922746781115</c:v>
+                  <c:v>1.2747747747747749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1888412017167382</c:v>
+                  <c:v>1.2477477477477477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3133047210300428</c:v>
+                  <c:v>1.3783783783783783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4334763948497855</c:v>
+                  <c:v>1.5045045045045045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1931330472103003</c:v>
+                  <c:v>1.2522522522522523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4592274678111588</c:v>
+                  <c:v>1.5315315315315314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,25 +2236,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98446428571428568</c:v>
+                  <c:v>1.0014792899408285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1721428571428572</c:v>
+                  <c:v>1.2141272189349113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2416071428571429</c:v>
+                  <c:v>1.2856878698224852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2987500000000001</c:v>
+                  <c:v>1.3439349112426036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26125</c:v>
+                  <c:v>1.3012204142011834</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4157142857142857</c:v>
+                  <c:v>1.4659763313609466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4823214285714286</c:v>
+                  <c:v>1.5367973372781065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,25 +2331,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94852941176470584</c:v>
+                  <c:v>0.98897411313518691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1672794117647058</c:v>
+                  <c:v>1.2186001917545541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1902573529411764</c:v>
+                  <c:v>1.2416107382550334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.197610294117647</c:v>
+                  <c:v>1.2483221476510067</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2752757352941175</c:v>
+                  <c:v>1.3250239693192714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5266544117647058</c:v>
+                  <c:v>1.592521572387344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5206801470588236</c:v>
+                  <c:v>1.587248322147651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,25 +2426,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0439151470040939</c:v>
+                  <c:v>1.0466281310211947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1890584294752513</c:v>
+                  <c:v>1.23121387283237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.302940081875698</c:v>
+                  <c:v>1.3491329479768785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2925195385187942</c:v>
+                  <c:v>1.3398843930635838</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1957573502046892</c:v>
+                  <c:v>1.2396917148362234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3401563081503536</c:v>
+                  <c:v>1.3876685934489403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3714179382210645</c:v>
+                  <c:v>1.4231213872832371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,25 +2521,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93988269794721413</c:v>
+                  <c:v>0.93814432989690721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2023460410557185</c:v>
+                  <c:v>1.2268041237113403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2683284457478006</c:v>
+                  <c:v>1.2739322533136965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6510263929618769</c:v>
+                  <c:v>1.6583210603829159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4897360703812317</c:v>
+                  <c:v>1.5022091310751104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4721407624633431</c:v>
+                  <c:v>1.4830633284241532</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8211143695014662</c:v>
+                  <c:v>1.8335787923416789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,15 +4638,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>533260</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6122,8 +6122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
   <dimension ref="B2:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6171,19 +6171,22 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>5600</v>
+        <v>5408</v>
       </c>
       <c r="E3">
-        <v>2176</v>
+        <v>2086</v>
       </c>
       <c r="F3">
-        <v>2687</v>
+        <v>2595</v>
       </c>
       <c r="G3">
-        <v>682</v>
+        <v>679</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>B3</f>
@@ -6215,19 +6218,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4">
-        <v>5513</v>
+        <v>5416</v>
       </c>
       <c r="E4">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F4">
-        <v>2805</v>
+        <v>2716</v>
       </c>
       <c r="G4">
-        <v>641</v>
+        <v>637</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I10" si="4">B4</f>
@@ -6235,23 +6241,23 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" si="5">1/C$3*C4</f>
-        <v>0.97854077253218885</v>
+        <v>1.0225225225225225</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0.98446428571428568</v>
+        <v>1.0014792899408285</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.94852941176470584</v>
+        <v>0.98897411313518691</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>1.0439151470040939</v>
+        <v>1.0466281310211947</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>0.93988269794721413</v>
+        <v>0.93814432989690721</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6262,16 +6268,19 @@
         <v>283</v>
       </c>
       <c r="D5">
-        <v>6564</v>
+        <v>6566</v>
       </c>
       <c r="E5">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="F5">
         <v>3195</v>
       </c>
       <c r="G5">
-        <v>820</v>
+        <v>833</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6279,23 +6288,23 @@
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>1.2145922746781115</v>
+        <v>1.2747747747747749</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.1721428571428572</v>
+        <v>1.2141272189349113</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1.1672794117647058</v>
+        <v>1.2186001917545541</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>1.1890584294752513</v>
+        <v>1.23121387283237</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>1.2023460410557185</v>
+        <v>1.2268041237113403</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -6317,29 +6326,32 @@
       <c r="G6">
         <v>865</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Kotlin</v>
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
-        <v>1.1888412017167382</v>
+        <v>1.2477477477477477</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.2416071428571429</v>
+        <v>1.2856878698224852</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>1.1902573529411764</v>
+        <v>1.2416107382550334</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>1.302940081875698</v>
+        <v>1.3491329479768785</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>1.2683284457478006</v>
+        <v>1.2739322533136965</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -6350,16 +6362,19 @@
         <v>306</v>
       </c>
       <c r="D7">
-        <v>7273</v>
+        <v>7268</v>
       </c>
       <c r="E7">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="F7">
-        <v>3473</v>
+        <v>3477</v>
       </c>
       <c r="G7">
         <v>1126</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6367,23 +6382,23 @@
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>1.3133047210300428</v>
+        <v>1.3783783783783783</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.2987500000000001</v>
+        <v>1.3439349112426036</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.197610294117647</v>
+        <v>1.2483221476510067</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>1.2925195385187942</v>
+        <v>1.3398843930635838</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>1.6510263929618769</v>
+        <v>1.6583210603829159</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -6394,16 +6409,19 @@
         <v>334</v>
       </c>
       <c r="D8">
-        <v>7063</v>
+        <v>7037</v>
       </c>
       <c r="E8">
-        <v>2775</v>
+        <v>2764</v>
       </c>
       <c r="F8">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="G8">
-        <v>1016</v>
+        <v>1020</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6411,23 +6429,23 @@
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>1.4334763948497855</v>
+        <v>1.5045045045045045</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1.26125</v>
+        <v>1.3012204142011834</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.2752757352941175</v>
+        <v>1.3250239693192714</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>1.1957573502046892</v>
+        <v>1.2396917148362234</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>1.4897360703812317</v>
+        <v>1.5022091310751104</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -6447,7 +6465,10 @@
         <v>3601</v>
       </c>
       <c r="G9">
-        <v>1004</v>
+        <v>1007</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6455,23 +6476,23 @@
       </c>
       <c r="J9">
         <f t="shared" ref="J9" si="6">1/C$3*C9</f>
-        <v>1.1931330472103003</v>
+        <v>1.2522522522522523</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K10" si="7">1/D$3*D9</f>
-        <v>1.4157142857142857</v>
+        <v>1.4659763313609466</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L10" si="8">1/E$3*E9</f>
-        <v>1.5266544117647058</v>
+        <v>1.592521572387344</v>
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M10" si="9">1/F$3*F9</f>
-        <v>1.3401563081503536</v>
+        <v>1.3876685934489403</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N10" si="10">1/G$3*G9</f>
-        <v>1.4721407624633431</v>
+        <v>1.4830633284241532</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -6482,16 +6503,19 @@
         <v>340</v>
       </c>
       <c r="D10" s="3">
-        <v>8301</v>
+        <v>8311</v>
       </c>
       <c r="E10">
-        <v>3309</v>
+        <v>3311</v>
       </c>
       <c r="F10">
-        <v>3685</v>
+        <v>3693</v>
       </c>
       <c r="G10">
-        <v>1242</v>
+        <v>1245</v>
+      </c>
+      <c r="H10">
+        <v>65</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="4"/>
@@ -6499,23 +6523,23 @@
       </c>
       <c r="J10">
         <f t="shared" ref="J10" si="11">1/C$3*C10</f>
-        <v>1.4592274678111588</v>
+        <v>1.5315315315315314</v>
       </c>
       <c r="K10">
         <f t="shared" si="7"/>
-        <v>1.4823214285714286</v>
+        <v>1.5367973372781065</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>1.5206801470588236</v>
+        <v>1.587248322147651</v>
       </c>
       <c r="M10">
         <f t="shared" si="9"/>
-        <v>1.3714179382210645</v>
+        <v>1.4231213872832371</v>
       </c>
       <c r="N10">
         <f t="shared" si="10"/>
-        <v>1.8211143695014662</v>
+        <v>1.8335787923416789</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDB66D8-429C-2C49-96DD-CC360912F79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FB8C5C-44B4-C74B-A92F-57BA8C016EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34040" windowHeight="17500" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
-    <sheet name="signal" sheetId="3" r:id="rId2"/>
-    <sheet name="Concise" sheetId="2" r:id="rId3"/>
+    <sheet name="Concise" sheetId="2" r:id="rId2"/>
+    <sheet name="signal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
   <si>
     <t>Benchmark</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>window size changed</t>
+  </si>
+  <si>
+    <t>Underscore</t>
+  </si>
+  <si>
+    <t>Nim</t>
+  </si>
+  <si>
+    <t>Vlang</t>
+  </si>
+  <si>
+    <t>Zig</t>
   </si>
 </sst>
 </file>
@@ -538,8 +550,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,9 +671,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$I$4</c:f>
+              <c:f>Performance!$C$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -675,23 +687,32 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>PyPy</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Rust</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$5:$I$5</c:f>
+              <c:f>Performance!$C$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.0999999999999996</c:v>
                 </c:pt>
@@ -705,13 +726,22 @@
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,9 +778,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$I$4</c:f>
+              <c:f>Performance!$C$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -764,23 +794,32 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>PyPy</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Rust</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$6:$I$6</c:f>
+              <c:f>Performance!$C$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.1</c:v>
                 </c:pt>
@@ -794,13 +833,22 @@
                   <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,9 +885,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$I$4</c:f>
+              <c:f>Performance!$C$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -853,23 +901,32 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>PyPy</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Rust</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$7:$I$7</c:f>
+              <c:f>Performance!$C$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.8</c:v>
                 </c:pt>
@@ -883,13 +940,22 @@
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>15.4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,9 +992,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$I$4</c:f>
+              <c:f>Performance!$C$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -942,23 +1008,32 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>PyPy</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Rust</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$8:$I$8</c:f>
+              <c:f>Performance!$C$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.6</c:v>
                 </c:pt>
@@ -972,13 +1047,22 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,9 +1099,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$4:$I$4</c:f>
+              <c:f>Performance!$C$4:$L$4</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Bau</c:v>
                 </c:pt>
@@ -1031,23 +1115,32 @@
                   <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>PyPy</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Rust</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$9:$I$9</c:f>
+              <c:f>Performance!$C$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.5</c:v>
                 </c:pt>
@@ -1061,13 +1154,22 @@
                   <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>14.9</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,6 +1341,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1246,7 +1349,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1508,7 +1610,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Swift</c:v>
+                  <c:v>Nim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1550,16 +1652,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>283</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6566</c:v>
+                  <c:v>6096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542</c:v>
+                  <c:v>2351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3195</c:v>
+                  <c:v>3068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,7 +1681,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kotlin</c:v>
+                  <c:v>Swift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1621,16 +1723,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>277</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6953</c:v>
+                  <c:v>6566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2590</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3501</c:v>
+                  <c:v>3195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1752,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C</c:v>
+                  <c:v>Vlang</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1695,13 +1797,13 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7268</c:v>
+                  <c:v>6732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2604</c:v>
+                  <c:v>2740</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3477</c:v>
+                  <c:v>3028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1823,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Go</c:v>
+                  <c:v>Kotlin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1763,16 +1865,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>334</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7037</c:v>
+                  <c:v>6953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2764</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3217</c:v>
+                  <c:v>3501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,6 +1882,371 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-DD04-B54E-B7F7-3461ED87B74D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4F6-E946-8D0D-119611D52763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4F6-E946-8D0D-119611D52763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F4F6-E946-8D0D-119611D52763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F4F6-E946-8D0D-119611D52763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Concise!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Concise!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Lines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Whitespace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Alphanumeric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Concise!$C$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE10-6F45-BF22-CF375864CE78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1943,6 +2410,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1950,7 +2418,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2101,9 +2568,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$10</c:f>
+              <c:f>Concise!$I$3:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -2111,32 +2578,41 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Swift</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Kotlin</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Go</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$J$3:$J$10</c:f>
+              <c:f>Concise!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2144,22 +2620,31 @@
                   <c:v>1.0225225225225225</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.1351351351351351</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.2747747747747749</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2477477477477477</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.3783783783783783</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2477477477477477</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.5045045045045045</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>1.3783783783783783</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.2522522522522523</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1.5315315315315314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6936936936936937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,9 +2681,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$10</c:f>
+              <c:f>Concise!$I$3:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -2206,32 +2691,41 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Swift</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Kotlin</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Go</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$K$3:$K$10</c:f>
+              <c:f>Concise!$K$3:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2239,22 +2733,31 @@
                   <c:v>1.0014792899408285</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.1272189349112425</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.2141272189349113</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.2448224852071006</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.2856878698224852</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>1.3012204142011834</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.3439349112426036</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3012204142011834</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1.4659763313609466</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1.5367973372781065</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9744822485207101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,9 +2794,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$10</c:f>
+              <c:f>Concise!$I$3:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -2301,32 +2804,41 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Swift</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Kotlin</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Go</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$L$3:$L$10</c:f>
+              <c:f>Concise!$L$3:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2334,22 +2846,31 @@
                   <c:v>0.98897411313518691</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.1270373921380632</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.2186001917545541</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.3135186960690315</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.2416107382550334</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>1.3250239693192714</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.2483221476510067</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3250239693192714</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1.592521572387344</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1.587248322147651</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6917545541706616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,9 +2907,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$10</c:f>
+              <c:f>Concise!$I$3:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -2396,32 +2917,41 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Swift</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Kotlin</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Go</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$M$3:$M$10</c:f>
+              <c:f>Concise!$M$3:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2429,22 +2959,31 @@
                   <c:v>1.0466281310211947</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.1822736030828516</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.23121387283237</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.166859344894027</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.3491329479768785</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>1.2396917148362234</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.3398843930635838</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2396917148362234</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1.3876685934489403</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1.4231213872832371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0809248554913293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,9 +3020,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Concise!$I$3:$I$10</c:f>
+              <c:f>Concise!$I$3:$I$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Python</c:v>
                 </c:pt>
@@ -2491,32 +3030,41 @@
                   <c:v>Bau</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Nim</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Swift</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Vlang</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Kotlin</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Go</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Zig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Concise!$N$3:$N$10</c:f>
+              <c:f>Concise!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2524,22 +3072,31 @@
                   <c:v>0.93814432989690721</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.99263622974963184</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.2268041237113403</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.3019145802650958</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.2739322533136965</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>1.5022091310751104</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.6583210603829159</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5022091310751104</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1.4830633284241532</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1.8335787923416789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5493372606774667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2695,7 +3252,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2713,6 +3270,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2720,7 +3278,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4602,15 +5159,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>754317</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>373317</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4638,15 +5195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533260</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>575360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>126298</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>193484</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4993,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
   <dimension ref="B4:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5006,33 +5563,42 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="K4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5049,16 +5615,25 @@
         <v>3.4</v>
       </c>
       <c r="G5" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="H5" s="1">
         <v>8.5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>5.9</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5075,16 +5650,25 @@
         <v>2.1</v>
       </c>
       <c r="G6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H6" s="1">
         <v>5.2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5101,16 +5685,25 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="1">
         <v>15.4</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1.8</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5127,16 +5720,25 @@
         <v>3.5</v>
       </c>
       <c r="G8" s="1">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1.5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -5153,25 +5755,68 @@
         <v>3.8</v>
       </c>
       <c r="G9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="1">
         <v>14.9</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>3.8</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>15.1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>13.1</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>20.9</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>17.2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>46.300000000000004</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10" si="1">SUM(J5:J9)</f>
+        <v>40.9</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ref="K10" si="2">SUM(K5:K9)</f>
+        <v>20.3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10" si="3">SUM(L5:L9)</f>
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5180,7 +5825,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5189,7 +5834,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5198,7 +5843,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5207,7 +5852,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5224,15 +5869,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>0.42202546296296295</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>0.4258912037037037</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <f>K18-K17</f>
         <v>3.8657407407407529E-3</v>
       </c>
@@ -5280,6 +5925,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
+  <dimension ref="B2:U74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="21" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>222</v>
+      </c>
+      <c r="D3">
+        <v>5408</v>
+      </c>
+      <c r="E3">
+        <v>2086</v>
+      </c>
+      <c r="F3">
+        <v>2595</v>
+      </c>
+      <c r="G3">
+        <v>679</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>B3</f>
+        <v>Python</v>
+      </c>
+      <c r="J3">
+        <f>1/C$3*C3</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3" si="0">1/D$3*D3</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3" si="1">1/E$3*E3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3" si="2">1/F$3*F3</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3" si="3">1/G$3*G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>227</v>
+      </c>
+      <c r="D4">
+        <v>5416</v>
+      </c>
+      <c r="E4">
+        <v>2063</v>
+      </c>
+      <c r="F4">
+        <v>2716</v>
+      </c>
+      <c r="G4">
+        <v>637</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" ref="I4:I12" si="4">B4</f>
+        <v>Bau</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="5">1/C$3*C4</f>
+        <v>1.0225225225225225</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="6">1/D$3*D4</f>
+        <v>1.0014792899408285</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="7">1/E$3*E4</f>
+        <v>0.98897411313518691</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="8">1/F$3*F4</f>
+        <v>1.0466281310211947</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="9">1/G$3*G4</f>
+        <v>0.93814432989690721</v>
+      </c>
+      <c r="P4">
+        <f>J4-J$3</f>
+        <v>2.2522522522522515E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="10">K4-K$3</f>
+        <v>1.4792899408284654E-3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R12" si="11">L4-L$3</f>
+        <v>-1.1025886864813095E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S12" si="12">M4-M$3</f>
+        <v>4.6628131021194674E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T12" si="13">N4-N$3</f>
+        <v>-6.1855670103092786E-2</v>
+      </c>
+      <c r="U4">
+        <f>SUM(P4:T4)</f>
+        <v>-2.2516134833602264E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>252</v>
+      </c>
+      <c r="D5">
+        <v>6096</v>
+      </c>
+      <c r="E5">
+        <v>2351</v>
+      </c>
+      <c r="F5">
+        <v>3068</v>
+      </c>
+      <c r="G5">
+        <v>674</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Nim</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>1.1351351351351351</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>1.1272189349112425</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>1.1270373921380632</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>1.1822736030828516</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>0.99263622974963184</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P12" si="14">J5-J$3</f>
+        <v>0.13513513513513509</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="10"/>
+        <v>0.12721893491124248</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="11"/>
+        <v>0.1270373921380632</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="12"/>
+        <v>0.18227360308285157</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="13"/>
+        <v>-7.3637702503681624E-3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U12" si="15">SUM(P5:T5)</f>
+        <v>0.56430129501692416</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>283</v>
+      </c>
+      <c r="D6">
+        <v>6566</v>
+      </c>
+      <c r="E6">
+        <v>2542</v>
+      </c>
+      <c r="F6">
+        <v>3195</v>
+      </c>
+      <c r="G6">
+        <v>833</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Swift</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>1.2747747747747749</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>1.2141272189349113</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>1.2186001917545541</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>1.23121387283237</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>1.2268041237113403</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="14"/>
+        <v>0.27477477477477485</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="10"/>
+        <v>0.21412721893491127</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="11"/>
+        <v>0.21860019175455414</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="12"/>
+        <v>0.23121387283237005</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="13"/>
+        <v>0.22680412371134029</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="15"/>
+        <v>1.1655201820079506</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>306</v>
+      </c>
+      <c r="D7">
+        <v>6732</v>
+      </c>
+      <c r="E7">
+        <v>2740</v>
+      </c>
+      <c r="F7">
+        <v>3028</v>
+      </c>
+      <c r="G7">
+        <v>884</v>
+      </c>
+      <c r="H7">
+        <v>81</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Vlang</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>1.3783783783783783</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>1.2448224852071006</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>1.3135186960690315</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>1.166859344894027</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>1.3019145802650958</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="14"/>
+        <v>0.37837837837837829</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="10"/>
+        <v>0.24482248520710059</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="11"/>
+        <v>0.31351869606903149</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="12"/>
+        <v>0.16685934489402698</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="13"/>
+        <v>0.30191458026509577</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="15"/>
+        <v>1.4054934848136331</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>277</v>
+      </c>
+      <c r="D8">
+        <v>6953</v>
+      </c>
+      <c r="E8">
+        <v>2590</v>
+      </c>
+      <c r="F8">
+        <v>3501</v>
+      </c>
+      <c r="G8">
+        <v>865</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Kotlin</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>1.2477477477477477</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>1.2856878698224852</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>1.2416107382550334</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>1.3491329479768785</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>1.2739322533136965</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="14"/>
+        <v>0.24774774774774766</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="10"/>
+        <v>0.28568786982248517</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="11"/>
+        <v>0.24161073825503343</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>0.34913294797687855</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
+        <v>0.27393225331369653</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="15"/>
+        <v>1.3981115571158413</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>334</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7037</v>
+      </c>
+      <c r="E9">
+        <v>2764</v>
+      </c>
+      <c r="F9">
+        <v>3217</v>
+      </c>
+      <c r="G9">
+        <v>1020</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Go</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>1.5045045045045045</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>1.3012204142011834</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>1.3250239693192714</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>1.2396917148362234</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>1.5022091310751104</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="14"/>
+        <v>0.50450450450450446</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="10"/>
+        <v>0.3012204142011834</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="11"/>
+        <v>0.32502396931927136</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="12"/>
+        <v>0.23969171483622342</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="13"/>
+        <v>0.50220913107511045</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="15"/>
+        <v>1.8726497339362931</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>306</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7268</v>
+      </c>
+      <c r="E10">
+        <v>2604</v>
+      </c>
+      <c r="F10">
+        <v>3477</v>
+      </c>
+      <c r="G10">
+        <v>1126</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>1.3783783783783783</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>1.3439349112426036</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>1.2483221476510067</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>1.3398843930635838</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>1.6583210603829159</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="14"/>
+        <v>0.37837837837837829</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="10"/>
+        <v>0.34393491124260356</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="11"/>
+        <v>0.24832214765100669</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>0.33988439306358376</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="13"/>
+        <v>0.65832106038291593</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="15"/>
+        <v>1.9688408907184882</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>278</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7928</v>
+      </c>
+      <c r="E11">
+        <v>3322</v>
+      </c>
+      <c r="F11">
+        <v>3601</v>
+      </c>
+      <c r="G11">
+        <v>1007</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Java</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>1.2522522522522523</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>1.4659763313609466</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>1.592521572387344</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>1.3876685934489403</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>1.4830633284241532</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="14"/>
+        <v>0.25225225225225234</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="10"/>
+        <v>0.46597633136094663</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="11"/>
+        <v>0.59252157238734404</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="12"/>
+        <v>0.38766859344894034</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="13"/>
+        <v>0.48306332842415323</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="15"/>
+        <v>2.1814820778736363</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>340</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8311</v>
+      </c>
+      <c r="E12">
+        <v>3311</v>
+      </c>
+      <c r="F12">
+        <v>3693</v>
+      </c>
+      <c r="G12">
+        <v>1245</v>
+      </c>
+      <c r="H12">
+        <v>65</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Rust</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>1.5315315315315314</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>1.5367973372781065</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>1.587248322147651</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>1.4231213872832371</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>1.8335787923416789</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="14"/>
+        <v>0.53153153153153143</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="10"/>
+        <v>0.53679733727810652</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="11"/>
+        <v>0.58724832214765099</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="12"/>
+        <v>0.42312138728323712</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="13"/>
+        <v>0.83357879234167886</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="15"/>
+        <v>2.9122773705822045</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13">
+        <v>376</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10678</v>
+      </c>
+      <c r="E13">
+        <v>3529</v>
+      </c>
+      <c r="F13">
+        <v>5400</v>
+      </c>
+      <c r="G13">
+        <v>1731</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" ref="I13" si="16">B13</f>
+        <v>Zig</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="17">1/C$3*C13</f>
+        <v>1.6936936936936937</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="18">1/D$3*D13</f>
+        <v>1.9744822485207101</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="19">1/E$3*E13</f>
+        <v>1.6917545541706616</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13" si="20">1/F$3*F13</f>
+        <v>2.0809248554913293</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="21">1/G$3*G13</f>
+        <v>2.5493372606774667</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I74" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCE9842-6C14-0245-8092-DD3DC9C4F639}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -6116,654 +7765,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
-  <dimension ref="B2:N74"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>222</v>
-      </c>
-      <c r="D3">
-        <v>5408</v>
-      </c>
-      <c r="E3">
-        <v>2086</v>
-      </c>
-      <c r="F3">
-        <v>2595</v>
-      </c>
-      <c r="G3">
-        <v>679</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>B3</f>
-        <v>Python</v>
-      </c>
-      <c r="J3">
-        <f>1/C$3*C3</f>
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K8" si="0">1/D$3*D3</f>
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="1">1/E$3*E3</f>
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M8" si="2">1/F$3*F3</f>
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N8" si="3">1/G$3*G3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>227</v>
-      </c>
-      <c r="D4">
-        <v>5416</v>
-      </c>
-      <c r="E4">
-        <v>2063</v>
-      </c>
-      <c r="F4">
-        <v>2716</v>
-      </c>
-      <c r="G4">
-        <v>637</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f t="shared" ref="I4:I10" si="4">B4</f>
-        <v>Bau</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J8" si="5">1/C$3*C4</f>
-        <v>1.0225225225225225</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>1.0014792899408285</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>0.98897411313518691</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>1.0466281310211947</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>0.93814432989690721</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>283</v>
-      </c>
-      <c r="D5">
-        <v>6566</v>
-      </c>
-      <c r="E5">
-        <v>2542</v>
-      </c>
-      <c r="F5">
-        <v>3195</v>
-      </c>
-      <c r="G5">
-        <v>833</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Swift</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>1.2747747747747749</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1.2141272189349113</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>1.2186001917545541</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>1.23121387283237</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>1.2268041237113403</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>277</v>
-      </c>
-      <c r="D6">
-        <v>6953</v>
-      </c>
-      <c r="E6">
-        <v>2590</v>
-      </c>
-      <c r="F6">
-        <v>3501</v>
-      </c>
-      <c r="G6">
-        <v>865</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Kotlin</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>1.2477477477477477</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1.2856878698224852</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>1.2416107382550334</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>1.3491329479768785</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>1.2739322533136965</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>306</v>
-      </c>
-      <c r="D7">
-        <v>7268</v>
-      </c>
-      <c r="E7">
-        <v>2604</v>
-      </c>
-      <c r="F7">
-        <v>3477</v>
-      </c>
-      <c r="G7">
-        <v>1126</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>1.3783783783783783</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1.3439349112426036</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>1.2483221476510067</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>1.3398843930635838</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>1.6583210603829159</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>334</v>
-      </c>
-      <c r="D8">
-        <v>7037</v>
-      </c>
-      <c r="E8">
-        <v>2764</v>
-      </c>
-      <c r="F8">
-        <v>3217</v>
-      </c>
-      <c r="G8">
-        <v>1020</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Go</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>1.5045045045045045</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>1.3012204142011834</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>1.3250239693192714</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>1.2396917148362234</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>1.5022091310751104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>278</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7928</v>
-      </c>
-      <c r="E9">
-        <v>3322</v>
-      </c>
-      <c r="F9">
-        <v>3601</v>
-      </c>
-      <c r="G9">
-        <v>1007</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Java</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="J9" si="6">1/C$3*C9</f>
-        <v>1.2522522522522523</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K10" si="7">1/D$3*D9</f>
-        <v>1.4659763313609466</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9:L10" si="8">1/E$3*E9</f>
-        <v>1.592521572387344</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ref="M9:M10" si="9">1/F$3*F9</f>
-        <v>1.3876685934489403</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ref="N9:N10" si="10">1/G$3*G9</f>
-        <v>1.4830633284241532</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>340</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8311</v>
-      </c>
-      <c r="E10">
-        <v>3311</v>
-      </c>
-      <c r="F10">
-        <v>3693</v>
-      </c>
-      <c r="G10">
-        <v>1245</v>
-      </c>
-      <c r="H10">
-        <v>65</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Rust</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="J10" si="11">1/C$3*C10</f>
-        <v>1.5315315315315314</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="7"/>
-        <v>1.5367973372781065</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="8"/>
-        <v>1.587248322147651</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="9"/>
-        <v>1.4231213872832371</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="10"/>
-        <v>1.8335787923416789</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D43" s="3"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I54" s="3"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I55" s="3"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I56" s="3"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I59" s="3"/>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I60" s="3"/>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I61" s="3"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I62" s="3"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I63" s="3"/>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="I64" s="3"/>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I66" s="3"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I69" s="3"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I74" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FB8C5C-44B4-C74B-A92F-57BA8C016EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002423A5-19F2-E84A-BACD-D95A574B49B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34040" windowHeight="17500" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
   <si>
     <t>Benchmark</t>
   </si>
@@ -572,7 +572,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -714,34 +714,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>6.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,34 +821,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,34 +928,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.4</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,34 +1035,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,34 +1142,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.5</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.9</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.7</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,7 +1247,8 @@
         <c:axId val="15769792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
+          <c:max val="11"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1386,7 +1387,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2455,7 +2456,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5548,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
-  <dimension ref="B4:N23"/>
+  <dimension ref="B4:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5563,7 +5564,7 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -5597,226 +5598,272 @@
       <c r="L4" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="D5" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="E5" s="1">
-        <v>11</v>
+        <v>6.7</v>
       </c>
       <c r="F5" s="1">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="I5" s="1">
-        <v>5.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J5" s="1">
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="K5" s="1">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="L5" s="1">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>67</v>
+      </c>
+      <c r="O5">
+        <f>N5/H5</f>
+        <v>12.181818181818182</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="1">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G6" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="H6" s="1">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="J6" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="K6" s="1">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="1">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>51</v>
+      </c>
+      <c r="O6">
+        <f>N6/H6</f>
+        <v>13.783783783783782</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="D7" s="1">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="E7" s="1">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="F7" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="G7" s="1">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H7" s="1">
-        <v>15.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="J7" s="1">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="K7" s="1">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="L7" s="1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>143</v>
+      </c>
+      <c r="O7">
+        <f>N7/H7</f>
+        <v>14.019607843137257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="D8" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.5</v>
-      </c>
       <c r="J8" s="1">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="L8" s="1">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="O8">
+        <f>N8/H8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="D9" s="1">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="E9" s="1">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="F9" s="1">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="G9" s="1">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H9" s="1">
-        <v>14.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I9" s="1">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>17</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K9" s="1">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L9" s="1">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>9.4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>129</v>
+      </c>
+      <c r="O9">
+        <f>N9/H9</f>
+        <v>13.163265306122447</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
-        <v>15.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>13.1</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>20.9</v>
+        <v>12.5</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>17.2</v>
+        <v>10.5</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>45.5</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>46.300000000000004</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ref="J10" si="1">SUM(J5:J9)</f>
-        <v>40.9</v>
+        <v>28.7</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10" si="2">SUM(K5:K9)</f>
-        <v>20.3</v>
+        <v>12.3</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10" si="3">SUM(L5:L9)</f>
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L10:N10" si="3">SUM(L5:L9)</f>
+        <v>19.8</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>392.8</v>
+      </c>
+      <c r="O10">
+        <f>N10/H10</f>
+        <v>12.836601307189543</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5825,7 +5872,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5834,7 +5881,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5843,7 +5890,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5852,7 +5899,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/doc/performance.xlsx
+++ b/doc/performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mueller/data/bau/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002423A5-19F2-E84A-BACD-D95A574B49B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C768EC-CE2E-1049-828C-8374B17E1E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34040" windowHeight="17500" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
+    <workbookView xWindow="4320" yWindow="500" windowWidth="34040" windowHeight="17500" activeTab="1" xr2:uid="{8BA8907E-A4D7-9D46-8614-8210467CB087}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -1514,7 +1514,7 @@
                   <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5408</c:v>
+                  <c:v>5410</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2086</c:v>
@@ -1585,13 +1585,13 @@
                   <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5416</c:v>
+                  <c:v>5396</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2716</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1727,7 @@
                   <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6566</c:v>
+                  <c:v>6571</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2542</c:v>
@@ -1798,10 +1798,10 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6732</c:v>
+                  <c:v>6726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2740</c:v>
+                  <c:v>2734</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3028</c:v>
@@ -2161,7 +2161,7 @@
                   <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8311</c:v>
+                  <c:v>8314</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3311</c:v>
@@ -2234,13 +2234,13 @@
                   <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10678</c:v>
+                  <c:v>10209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3529</c:v>
+                  <c:v>3526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5400</c:v>
+                  <c:v>5011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2731,34 +2731,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0014792899408285</c:v>
+                  <c:v>0.99741219963031424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1272189349112425</c:v>
+                  <c:v>1.1268022181146025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2141272189349113</c:v>
+                  <c:v>1.2146025878003697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2448224852071006</c:v>
+                  <c:v>1.2432532347504621</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2856878698224852</c:v>
+                  <c:v>1.2852125693160812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3012204142011834</c:v>
+                  <c:v>1.3007393715341959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3439349112426036</c:v>
+                  <c:v>1.3434380776340111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4659763313609466</c:v>
+                  <c:v>1.4654343807763401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5367973372781065</c:v>
+                  <c:v>1.5367837338262476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9744822485207101</c:v>
+                  <c:v>1.8870609981515711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,7 +2853,7 @@
                   <c:v>1.2186001917545541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3135186960690315</c:v>
+                  <c:v>1.3106423777564717</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.2416107382550334</c:v>
@@ -2871,7 +2871,7 @@
                   <c:v>1.587248322147651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6917545541706616</c:v>
+                  <c:v>1.6903163950143816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,7 +2957,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0466281310211947</c:v>
+                  <c:v>1.0396917148362235</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.1822736030828516</c:v>
@@ -2984,7 +2984,7 @@
                   <c:v>1.4231213872832371</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0809248554913293</c:v>
+                  <c:v>1.9310211946050098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,7 +3070,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93814432989690721</c:v>
+                  <c:v>0.93519882179675995</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.99263622974963184</c:v>
@@ -3097,7 +3097,7 @@
                   <c:v>1.8335787923416789</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5493372606774667</c:v>
+                  <c:v>2.4491899852724592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5551,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430266A2-5A9C-AA42-B61E-0693631C31C7}">
   <dimension ref="B4:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -5640,7 +5640,7 @@
         <v>67</v>
       </c>
       <c r="O5">
-        <f>N5/H5</f>
+        <f t="shared" ref="O5:O10" si="0">N5/H5</f>
         <v>12.181818181818182</v>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
         <v>51</v>
       </c>
       <c r="O6">
-        <f>N6/H6</f>
+        <f t="shared" si="0"/>
         <v>13.783783783783782</v>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
         <v>143</v>
       </c>
       <c r="O7">
-        <f>N7/H7</f>
+        <f t="shared" si="0"/>
         <v>14.019607843137257</v>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
         <v>2.8</v>
       </c>
       <c r="O8">
-        <f>N8/H8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5808,58 +5808,58 @@
         <v>129</v>
       </c>
       <c r="O9">
-        <f>N9/H9</f>
+        <f t="shared" si="0"/>
         <v>13.163265306122447</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <f t="shared" ref="C10:I10" si="1">SUM(C5:C9)</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10" si="2">SUM(J5:J9)</f>
+        <v>28.7</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ref="K10" si="3">SUM(K5:K9)</f>
+        <v>12.3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:N10" si="4">SUM(L5:L9)</f>
+        <v>19.8</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="4"/>
+        <v>392.8</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="0"/>
-        <v>8.2000000000000011</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>30.599999999999998</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" ref="J10" si="1">SUM(J5:J9)</f>
-        <v>28.7</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" ref="K10" si="2">SUM(K5:K9)</f>
-        <v>12.3</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" ref="L10:N10" si="3">SUM(L5:L9)</f>
-        <v>19.8</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="3"/>
-        <v>392.8</v>
-      </c>
-      <c r="O10">
-        <f>N10/H10</f>
         <v>12.836601307189543</v>
       </c>
     </row>
@@ -5975,8 +5975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA3CD0-A1E2-3843-9734-943657D6AF5A}">
   <dimension ref="B2:U74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6033,7 +6033,7 @@
         <v>222</v>
       </c>
       <c r="D3">
-        <v>5408</v>
+        <v>5410</v>
       </c>
       <c r="E3">
         <v>2086</v>
@@ -6080,16 +6080,16 @@
         <v>227</v>
       </c>
       <c r="D4">
-        <v>5416</v>
+        <v>5396</v>
       </c>
       <c r="E4">
         <v>2063</v>
       </c>
       <c r="F4">
-        <v>2716</v>
+        <v>2698</v>
       </c>
       <c r="G4">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K12" si="6">1/D$3*D4</f>
-        <v>1.0014792899408285</v>
+        <v>0.99741219963031424</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="7">1/E$3*E4</f>
@@ -6112,11 +6112,11 @@
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M12" si="8">1/F$3*F4</f>
-        <v>1.0466281310211947</v>
+        <v>1.0396917148362235</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N12" si="9">1/G$3*G4</f>
-        <v>0.93814432989690721</v>
+        <v>0.93519882179675995</v>
       </c>
       <c r="P4">
         <f>J4-J$3</f>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q12" si="10">K4-K$3</f>
-        <v>1.4792899408284654E-3</v>
+        <v>-2.5878003696857554E-3</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R12" si="11">L4-L$3</f>
@@ -6132,15 +6132,15 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S12" si="12">M4-M$3</f>
-        <v>4.6628131021194674E-2</v>
+        <v>3.9691714836223468E-2</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T12" si="13">N4-N$3</f>
-        <v>-6.1855670103092786E-2</v>
+        <v>-6.4801178203240051E-2</v>
       </c>
       <c r="U4">
         <f>SUM(P4:T4)</f>
-        <v>-2.2516134833602264E-3</v>
+        <v>-1.6200628078992918E-2</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="6"/>
-        <v>1.1272189349112425</v>
+        <v>1.1268022181146025</v>
       </c>
       <c r="L5">
         <f t="shared" si="7"/>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="10"/>
-        <v>0.12721893491124248</v>
+        <v>0.12680221811460246</v>
       </c>
       <c r="R5">
         <f t="shared" si="11"/>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="U5">
         <f t="shared" ref="U5:U12" si="15">SUM(P5:T5)</f>
-        <v>0.56430129501692416</v>
+        <v>0.56388457822028415</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
@@ -6222,7 +6222,7 @@
         <v>283</v>
       </c>
       <c r="D6">
-        <v>6566</v>
+        <v>6571</v>
       </c>
       <c r="E6">
         <v>2542</v>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="6"/>
-        <v>1.2141272189349113</v>
+        <v>1.2146025878003697</v>
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="10"/>
-        <v>0.21412721893491127</v>
+        <v>0.21460258780036967</v>
       </c>
       <c r="R6">
         <f t="shared" si="11"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="15"/>
-        <v>1.1655201820079506</v>
+        <v>1.165995550873409</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
@@ -6293,10 +6293,10 @@
         <v>306</v>
       </c>
       <c r="D7">
-        <v>6732</v>
+        <v>6726</v>
       </c>
       <c r="E7">
-        <v>2740</v>
+        <v>2734</v>
       </c>
       <c r="F7">
         <v>3028</v>
@@ -6317,11 +6317,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="6"/>
-        <v>1.2448224852071006</v>
+        <v>1.2432532347504621</v>
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>1.3135186960690315</v>
+        <v>1.3106423777564717</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
@@ -6337,11 +6337,11 @@
       </c>
       <c r="Q7">
         <f t="shared" si="10"/>
-        <v>0.24482248520710059</v>
+        <v>0.24325323475046212</v>
       </c>
       <c r="R7">
         <f t="shared" si="11"/>
-        <v>0.31351869606903149</v>
+        <v>0.31064237775647174</v>
       </c>
       <c r="S7">
         <f t="shared" si="12"/>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="15"/>
-        <v>1.4054934848136331</v>
+        <v>1.4010479160444349</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>1.2856878698224852</v>
+        <v>1.2852125693160812</v>
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="10"/>
-        <v>0.28568786982248517</v>
+        <v>0.28521256931608119</v>
       </c>
       <c r="R8">
         <f t="shared" si="11"/>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="15"/>
-        <v>1.3981115571158413</v>
+        <v>1.3976362566094374</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="6"/>
-        <v>1.3012204142011834</v>
+        <v>1.3007393715341959</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="10"/>
-        <v>0.3012204142011834</v>
+        <v>0.30073937153419594</v>
       </c>
       <c r="R9">
         <f t="shared" si="11"/>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="15"/>
-        <v>1.8726497339362931</v>
+        <v>1.8721686912693056</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>1.3439349112426036</v>
+        <v>1.3434380776340111</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="10"/>
-        <v>0.34393491124260356</v>
+        <v>0.34343807763401113</v>
       </c>
       <c r="R10">
         <f t="shared" si="11"/>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="15"/>
-        <v>1.9688408907184882</v>
+        <v>1.9683440571098958</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>1.4659763313609466</v>
+        <v>1.4654343807763401</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="10"/>
-        <v>0.46597633136094663</v>
+        <v>0.46543438077634014</v>
       </c>
       <c r="R11">
         <f t="shared" si="11"/>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="U11">
         <f t="shared" si="15"/>
-        <v>2.1814820778736363</v>
+        <v>2.1809401272890301</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
@@ -6648,7 +6648,7 @@
         <v>340</v>
       </c>
       <c r="D12" s="3">
-        <v>8311</v>
+        <v>8314</v>
       </c>
       <c r="E12">
         <v>3311</v>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>1.5367973372781065</v>
+        <v>1.5367837338262476</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="10"/>
-        <v>0.53679733727810652</v>
+        <v>0.53678373382624756</v>
       </c>
       <c r="R12">
         <f t="shared" si="11"/>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="U12">
         <f t="shared" si="15"/>
-        <v>2.9122773705822045</v>
+        <v>2.9122637671303462</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
@@ -6719,19 +6719,19 @@
         <v>376</v>
       </c>
       <c r="D13" s="3">
-        <v>10678</v>
+        <v>10209</v>
       </c>
       <c r="E13">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="F13">
-        <v>5400</v>
+        <v>5011</v>
       </c>
       <c r="G13">
-        <v>1731</v>
+        <v>1663</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" ref="I13" si="16">B13</f>
@@ -6743,19 +6743,19 @@
       </c>
       <c r="K13">
         <f t="shared" ref="K13" si="18">1/D$3*D13</f>
-        <v>1.9744822485207101</v>
+        <v>1.8870609981515711</v>
       </c>
       <c r="L13">
         <f t="shared" ref="L13" si="19">1/E$3*E13</f>
-        <v>1.6917545541706616</v>
+        <v>1.6903163950143816</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13" si="20">1/F$3*F13</f>
-        <v>2.0809248554913293</v>
+        <v>1.9310211946050098</v>
       </c>
       <c r="N13">
         <f t="shared" ref="N13" si="21">1/G$3*G13</f>
-        <v>2.5493372606774667</v>
+        <v>2.4491899852724592</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
